--- a/input/Lewis_removed.xlsx
+++ b/input/Lewis_removed.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D40AB3-8AF1-4F29-8B3E-3B992FA2F9D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D4B742C-F789-4FCF-B756-67145A49020F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Lewis_review_canonical" sheetId="1" r:id="rId1"/>
+    <sheet name="Lewis_review2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="314">
   <si>
     <t>family</t>
   </si>
@@ -142,43 +142,826 @@
     <t>canonicalName</t>
   </si>
   <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Ctenophthalmidae</t>
+  </si>
+  <si>
+    <t>Rhadinopsyllinae</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla</t>
+  </si>
+  <si>
+    <t>semenovi</t>
+  </si>
+  <si>
+    <t>Argyropulo</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla semenovi Argyropulo, 1941</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla semenovi Argyropulo, 1946</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Arthropoda</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Siphonaptera</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla semenovi</t>
+  </si>
+  <si>
+    <t>duplicate canonical name</t>
+  </si>
+  <si>
+    <t>Ceratophyllidae</t>
+  </si>
+  <si>
+    <t>Ceratophyllinae</t>
+  </si>
+  <si>
+    <t>Thrassis</t>
+  </si>
+  <si>
+    <t>acamantis</t>
+  </si>
+  <si>
+    <t>(Rothschild)</t>
+  </si>
+  <si>
+    <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis (Rothschild, 1905)</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis</t>
+  </si>
+  <si>
+    <t>Ischnopsyllidae</t>
+  </si>
+  <si>
+    <t>Ischnopsyllinae</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla</t>
+  </si>
+  <si>
+    <t>hexactenus</t>
+  </si>
+  <si>
+    <t>(Kolenati)</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Lewis1210</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus hexactenus (Kolenati, 1856)</t>
+  </si>
+  <si>
+    <t>bouchei</t>
+  </si>
+  <si>
+    <t>Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei</t>
+  </si>
+  <si>
+    <t>Neopsyllinae</t>
+  </si>
+  <si>
+    <t>honora</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Neopsylla rhombosa Chen &amp; Wei, 1978</t>
+  </si>
+  <si>
+    <t>Lewis1620</t>
+  </si>
+  <si>
+    <t>Neopsylla honora Jordan, 1932</t>
+  </si>
+  <si>
+    <t>Ceratophyllus</t>
+  </si>
+  <si>
+    <t>mokrzeckyi</t>
+  </si>
+  <si>
+    <t>(Wagner)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
+  </si>
+  <si>
+    <t>Lewis1727</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
+  </si>
+  <si>
+    <t>acutus</t>
+  </si>
+  <si>
+    <t>Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>(Baker)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Lewis1858</t>
+  </si>
+  <si>
+    <t>Oropsylla montana (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>Lewis2334</t>
+  </si>
+  <si>
+    <t>Argyropulo, 1941</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
+  </si>
+  <si>
+    <t>Spilopsyllinae</t>
+  </si>
+  <si>
+    <t>Acediopsylla</t>
+  </si>
+  <si>
+    <t>Acediopsylla Ewing, 1940; Cediopsylla Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Acediopsylla Ewing, 1940</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>Ewing, 1940</t>
+  </si>
+  <si>
+    <t>spillmanni</t>
+  </si>
+  <si>
+    <t>Lewis2406</t>
+  </si>
+  <si>
+    <t>Spilopsyllus spillmanni Jordan, 1930</t>
+  </si>
+  <si>
+    <t>tepolita</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Lewis2407</t>
+  </si>
+  <si>
+    <t>Spilopsyllus tepolita Barrera, 1967</t>
+  </si>
+  <si>
+    <t>inaequalis inaequalis</t>
+  </si>
+  <si>
+    <t>Lewis2403</t>
+  </si>
+  <si>
+    <t>Spilopsyllus inaequalis inaequalis (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>inaequalis interrupta</t>
+  </si>
+  <si>
+    <t>Lewis2404</t>
+  </si>
+  <si>
+    <t>Spilopsyllus inaequalis interrupta Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii Wagner, 1930</t>
+  </si>
+  <si>
+    <t>kolenatii</t>
+  </si>
+  <si>
+    <t>Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii</t>
+  </si>
+  <si>
+    <t>Diamanus</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>hopkinsi</t>
+  </si>
+  <si>
+    <t>Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi</t>
+  </si>
+  <si>
+    <t>Cediopsylla</t>
+  </si>
+  <si>
+    <t>Cediopsylla Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Lewis2533</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis Stark, 1970</t>
+  </si>
+  <si>
+    <t>Stark, 1970</t>
+  </si>
+  <si>
+    <t>vagabundus vagabundus</t>
+  </si>
+  <si>
+    <t>(Boheman)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus digitalis Wahlgren, 1903; Ceratophyllus monedulae Wahlgren, 1907; Ceratophyllus vagabundus orientalis Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Lewis368</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus vagabundus vagabundus (Boheman, 1866)</t>
+  </si>
+  <si>
+    <t>monedulae</t>
+  </si>
+  <si>
+    <t>Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana Wagner, 1898</t>
+  </si>
+  <si>
+    <t>hexactena</t>
+  </si>
+  <si>
+    <t>petropolitana</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana</t>
+  </si>
+  <si>
+    <t>Pulex</t>
+  </si>
+  <si>
+    <t>Pulex vespertilionis Bouché, 1835</t>
+  </si>
+  <si>
+    <t>vespertilionis</t>
+  </si>
+  <si>
+    <t>Bouché, 1835</t>
+  </si>
+  <si>
+    <t>Pulex vespertilionis</t>
+  </si>
+  <si>
+    <t>Dugès, 1832</t>
+  </si>
+  <si>
+    <t>hirundinis</t>
+  </si>
+  <si>
+    <t>(Curtis)</t>
+  </si>
+  <si>
+    <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis</t>
+  </si>
+  <si>
+    <t>Xenopsyllinae</t>
+  </si>
+  <si>
+    <t>Xenopsylla</t>
+  </si>
+  <si>
+    <t>skrjabini</t>
+  </si>
+  <si>
+    <t>Ioff</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1930</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini</t>
+  </si>
+  <si>
+    <t>Leptopsyllidae</t>
+  </si>
+  <si>
+    <t>Leptopsyllinae</t>
+  </si>
+  <si>
+    <t>segnis</t>
+  </si>
+  <si>
+    <t>(Schönherr)</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
+  </si>
+  <si>
+    <t>musculi</t>
+  </si>
+  <si>
+    <t>Pulex musculi</t>
+  </si>
+  <si>
+    <t>Trichopsylla</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Lewis337</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis Chao, 1947</t>
+  </si>
+  <si>
+    <t>Chao, 1947</t>
+  </si>
+  <si>
+    <t>junior homonym</t>
+  </si>
+  <si>
+    <t>Ctenophthalminae</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus</t>
+  </si>
+  <si>
+    <t>agyrtes peusianus</t>
+  </si>
+  <si>
+    <t>Rosicky</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
+  </si>
+  <si>
+    <t>Lewis548</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes peusianus Rosicky, 1955</t>
+  </si>
+  <si>
+    <t>agyrtes</t>
+  </si>
+  <si>
+    <t>slovacicus</t>
+  </si>
+  <si>
+    <t>Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>partim</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus</t>
+  </si>
+  <si>
+    <t>agyrtes agyrtes</t>
+  </si>
+  <si>
+    <t>(Heller)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtoides Wahlgren, 1911; Ctenophthalmus agyrtes hanzaki Rosicky, 1951; Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
+  </si>
+  <si>
+    <t>Lewis537</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes agyrtes (Heller, 1896)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>orphilus</t>
+  </si>
+  <si>
+    <t>tatricus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus</t>
+  </si>
+  <si>
+    <t>intermedius</t>
+  </si>
+  <si>
+    <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
+  </si>
+  <si>
+    <t>Lewis1214</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
+  </si>
+  <si>
+    <t>schmitzi</t>
+  </si>
+  <si>
+    <t>Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>female Ischnopsyllus intermedius</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi</t>
+  </si>
+  <si>
+    <t>simplex simplex</t>
+  </si>
+  <si>
+    <t>Ceratophyllus danubianus Rothschild, 1909; Citellophilus simplex domicae Rosicky, 1956; Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
+  </si>
+  <si>
+    <t>Lewis443</t>
+  </si>
+  <si>
+    <t>Citellophilus simplex simplex (Wagner, 1902)</t>
+  </si>
+  <si>
+    <t>male of Ischnopsyllus simplex simplex</t>
+  </si>
+  <si>
+    <t>Oropsylla</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
+  </si>
+  <si>
+    <t>mandarina</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina</t>
+  </si>
+  <si>
+    <t>Palaeopsylla</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>makaluensis</t>
+  </si>
+  <si>
+    <t>Brelih, 1975</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis</t>
+  </si>
+  <si>
+    <t>tauberi makaluensis</t>
+  </si>
+  <si>
+    <t>Brelih</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975 (Male)</t>
+  </si>
+  <si>
+    <t>Lewis1940</t>
+  </si>
+  <si>
+    <t>Palaeopsylla tauberi makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Archaeopsyllinae</t>
+  </si>
+  <si>
+    <t>canis</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
+  </si>
+  <si>
+    <t>Lewis516</t>
+  </si>
+  <si>
+    <t>Ctenocephalides canis (Curtis, 1926)</t>
+  </si>
+  <si>
+    <t>Pulex canis</t>
+  </si>
+  <si>
+    <t>Pulex canis Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Lewis1327</t>
+  </si>
+  <si>
+    <t>Pulex musculi Bouché, 1835</t>
+  </si>
+  <si>
+    <t>Leptopsylla segnis (Schönherr, 1811)</t>
+  </si>
+  <si>
+    <t>junior homonym of Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Pygiopsyllidae</t>
+  </si>
+  <si>
+    <t>Pygiopsylla</t>
+  </si>
+  <si>
+    <t>hoplia</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
+  </si>
+  <si>
+    <t>Lewis2257</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla hoplia Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>congrua</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua</t>
+  </si>
+  <si>
+    <t>Doratopsyllinae</t>
+  </si>
+  <si>
+    <t>Spalacopsylla</t>
+  </si>
+  <si>
+    <t>Ewing</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis41</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930</t>
+  </si>
+  <si>
+    <t>Adoratopsylla Ewing, 1925</t>
+  </si>
+  <si>
+    <t>Pinto, 1930</t>
+  </si>
+  <si>
+    <t>junior synonym</t>
+  </si>
+  <si>
+    <t>Kolenati</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Kolenati, 1856 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis827</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Kolenati, 1856</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus Kolenati, 1856</t>
+  </si>
+  <si>
+    <t>Kolenati, 1856</t>
+  </si>
+  <si>
+    <t>Lewis91</t>
+  </si>
+  <si>
+    <t>Trichopsylla Jordan &amp; Rothschild, 1920</t>
+  </si>
+  <si>
+    <t>Amalaraeus Ioff, 1936</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1920</t>
+  </si>
+  <si>
+    <t>junior homonym of Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Trichopsylla Ewing &amp; Fox, 1943</t>
+  </si>
+  <si>
+    <t>Ewing &amp; Fox, 1943</t>
+  </si>
+  <si>
+    <t>Lewis2710</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1928</t>
+  </si>
+  <si>
+    <t>Ioff, 1928</t>
+  </si>
+  <si>
+    <t>only later 1930 did Ioff describe</t>
+  </si>
+  <si>
+    <t>Ceratophyllus sterni Curt., [1829] (cited in Dale, 1878, but no associated valid species)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus sterni</t>
+  </si>
+  <si>
+    <t>sterni</t>
+  </si>
+  <si>
+    <t>Curt., [1829]</t>
+  </si>
+  <si>
+    <t>cited in Dale, 1878, but no associated valid species</t>
+  </si>
+  <si>
+    <t>Pulex gigas Kirby, 1837 (likely a species of Hystrichopsylla)</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>likely a species of Hystrichopsylla</t>
+  </si>
+  <si>
+    <t>Amalaraeus</t>
+  </si>
+  <si>
     <t>Amalaraeus fossoris Sutemin, 1969 (nomina ex phantasia)</t>
   </si>
   <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Animalia</t>
-  </si>
-  <si>
-    <t>Arthropoda</t>
-  </si>
-  <si>
-    <t>Insecta</t>
-  </si>
-  <si>
-    <t>Siphonaptera</t>
+    <t>Amalaraeus fossoris</t>
+  </si>
+  <si>
+    <t>fossoris</t>
+  </si>
+  <si>
+    <t>Sutemin, 1969</t>
+  </si>
+  <si>
+    <t>nomina ex phantasia</t>
   </si>
   <si>
     <t>Amalaraeus sugitanii Sutemin, 1969 (nomina ex phantasia)</t>
   </si>
   <si>
-    <t>Ceratophyllus sterni Curt., [1829] (cited in Dale, 1878, but no associated valid species)</t>
+    <t>Amalaraeus sugitanii</t>
+  </si>
+  <si>
+    <t>sugitanii</t>
   </si>
   <si>
     <t>Ctenophthalmus flavus Suteminn, 1969 (nomina ex phantasia)</t>
   </si>
   <si>
+    <t>Ctenophthalmus flavus</t>
+  </si>
+  <si>
+    <t>flavus</t>
+  </si>
+  <si>
+    <t>Suteminn, 1969</t>
+  </si>
+  <si>
     <t>Ctenophthalmus nepalensis Sutemin, 1969 (nomina ex phantasia)</t>
   </si>
   <si>
-    <t>Pulex gigas Kirby, 1837 (likely a species of Hystrichopsylla)</t>
+    <t>Ctenophthalmus nepalensis</t>
+  </si>
+  <si>
+    <t>nepalensis</t>
   </si>
   <si>
     <t>Pulex imperator Westwood, 1858 (non-flea)</t>
   </si>
   <si>
-    <t>Pulex terrestris ferox Alpinus, 1874 (nomina ex phantasia)</t>
+    <t>Pulex imperator</t>
+  </si>
+  <si>
+    <t>imperator</t>
+  </si>
+  <si>
+    <t>Westwood, 1858</t>
+  </si>
+  <si>
+    <t>non-flea</t>
   </si>
 </sst>
 </file>
@@ -1019,15 +1802,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,192 +1931,3054 @@
       <c r="AN1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2">
+        <v>2736</v>
+      </c>
+      <c r="R2" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>1930</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <v>3000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4">
+        <v>1967</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>3001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5">
+        <v>1895</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <v>3147</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>1925</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>3148</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>1930</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>3233</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>1967</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>3234</v>
+      </c>
+      <c r="L8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9">
+        <v>1895</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>3280</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>1925</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>3281</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>1916</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>2930</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>1895</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>2947</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>1856</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>3303</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" t="s">
+        <v>144</v>
+      </c>
+      <c r="S13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="I2">
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14">
+        <v>1932</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>3310</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15">
+        <v>1826</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>3176</v>
+      </c>
+      <c r="L15" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" t="s">
+        <v>180</v>
+      </c>
+      <c r="S15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16">
+        <v>1866</v>
+      </c>
+      <c r="G16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>3259</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17">
+        <v>1955</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17">
+        <v>3073</v>
+      </c>
+      <c r="L17" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" t="s">
+        <v>189</v>
+      </c>
+      <c r="S17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18">
+        <v>1896</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18">
+        <v>3330</v>
+      </c>
+      <c r="L18" t="s">
+        <v>199</v>
+      </c>
+      <c r="R18" t="s">
+        <v>189</v>
+      </c>
+      <c r="S18" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19">
+        <v>1955</v>
+      </c>
+      <c r="G19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19">
+        <v>3263</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R19" t="s">
+        <v>201</v>
+      </c>
+      <c r="S19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20">
+        <v>1896</v>
+      </c>
+      <c r="G20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20">
+        <v>3357</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="R20" t="s">
+        <v>201</v>
+      </c>
+      <c r="S20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <v>1916</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21">
+        <v>3212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" t="s">
+        <v>125</v>
+      </c>
+      <c r="S21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22">
+        <v>1895</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>3313</v>
+      </c>
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" t="s">
+        <v>125</v>
+      </c>
+      <c r="S22" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23">
+        <v>1856</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>3193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" t="s">
+        <v>120</v>
+      </c>
+      <c r="S23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>1932</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24">
+        <v>3210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <v>1898</v>
+      </c>
+      <c r="G25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25">
+        <v>3194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="R25" t="s">
+        <v>208</v>
+      </c>
+      <c r="S25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26">
+        <v>1902</v>
+      </c>
+      <c r="G26" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26">
+        <v>3328</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="R26" t="s">
+        <v>208</v>
+      </c>
+      <c r="S26" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>1856</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <v>2882</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <v>1932</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28">
+        <v>2923</v>
+      </c>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <v>1916</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29">
+        <v>3312</v>
+      </c>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R29" t="s">
+        <v>220</v>
+      </c>
+      <c r="S29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30">
+        <v>1975</v>
+      </c>
+      <c r="G30" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30">
+        <v>3134</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="R30" t="s">
+        <v>224</v>
+      </c>
+      <c r="S30" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31">
+        <v>1926</v>
+      </c>
+      <c r="G31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31">
+        <v>3184</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="R31" t="s">
+        <v>241</v>
+      </c>
+      <c r="S31" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32">
+        <v>1811</v>
+      </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32">
+        <v>3197</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="R32" t="s">
+        <v>243</v>
+      </c>
+      <c r="S32" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33">
+        <v>1856</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33">
+        <v>3347</v>
+      </c>
+      <c r="L33" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" t="s">
+        <v>151</v>
+      </c>
+      <c r="S33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34">
+        <v>1922</v>
+      </c>
+      <c r="G34" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34">
+        <v>2984</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="R34" t="s">
+        <v>252</v>
+      </c>
+      <c r="S34" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>1946</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35">
+        <v>2994</v>
+      </c>
+      <c r="L35" t="s">
+        <v>97</v>
+      </c>
+      <c r="R35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36">
+        <v>1925</v>
+      </c>
+      <c r="G36" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36">
+        <v>2743</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="R36" t="s">
+        <v>262</v>
+      </c>
+      <c r="S36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37">
+        <v>1856</v>
+      </c>
+      <c r="G37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37">
+        <v>2752</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="R37" t="s">
+        <v>269</v>
+      </c>
+      <c r="S37" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38">
+        <v>1905</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38">
+        <v>3238</v>
+      </c>
+      <c r="L38" t="s">
+        <v>132</v>
+      </c>
+      <c r="R38" t="s">
+        <v>133</v>
+      </c>
+      <c r="S38" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39">
+        <v>1936</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39">
+        <v>3153</v>
+      </c>
+      <c r="L39" t="s">
+        <v>272</v>
+      </c>
+      <c r="R39" t="s">
+        <v>273</v>
+      </c>
+      <c r="S39" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40">
+        <v>1936</v>
+      </c>
+      <c r="G40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <v>3283</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="R40" t="s">
+        <v>277</v>
+      </c>
+      <c r="S40" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41">
+        <v>1936</v>
+      </c>
+      <c r="G41" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41">
+        <v>2744</v>
+      </c>
+      <c r="R41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42">
+        <v>1930</v>
+      </c>
+      <c r="G42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42">
+        <v>3032</v>
+      </c>
+      <c r="L42" t="s">
+        <v>279</v>
+      </c>
+      <c r="R42" t="s">
+        <v>280</v>
+      </c>
+      <c r="S42" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43">
+        <v>2739</v>
+      </c>
+      <c r="R43" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44">
         <v>2734</v>
       </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
+      <c r="R44" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" t="s">
+        <v>299</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45">
         <v>2735</v>
       </c>
-      <c r="Y3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>45</v>
+      <c r="R45" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="G4" t="s">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4">
-        <v>2736</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>45</v>
+      <c r="I46">
+        <v>2737</v>
+      </c>
+      <c r="R46" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2737</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>45</v>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" t="s">
+        <v>306</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <v>2738</v>
+      </c>
+      <c r="R47" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="G6" t="s">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>309</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48">
+        <v>2740</v>
+      </c>
+      <c r="R48" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y48" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>2738</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="G7" t="s">
+      <c r="Z48" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <v>2739</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
+      <c r="AA48" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8">
-        <v>2740</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="G9" t="s">
+      <c r="AB48" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9">
-        <v>2741</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>45</v>
+      <c r="AD48" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO49">
+    <sortCondition ref="AO2:AO49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/Lewis_removed.xlsx
+++ b/input/Lewis_removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1B3F94-145C-4F37-889D-A80A366B8E2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2BB64F4-7B6A-459F-A6D8-60FE000636AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0090AB4F-462A-4B13-89E4-4FE9C57CD077}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7509262-6CEE-4033-917E-FA5750F414D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="339">
   <si>
     <t>family</t>
   </si>
@@ -168,84 +168,84 @@
     <t>Acediopsylla</t>
   </si>
   <si>
+    <t>(Baker)</t>
+  </si>
+  <si>
+    <t>Acediopsylla Ewing, 1940; Cediopsylla Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Acediopsylla Ewing, 1940</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Arthropoda</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Siphonaptera</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>Ewing, 1940</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>duplicate canonical name</t>
+  </si>
+  <si>
     <t>spillmanni</t>
   </si>
   <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>Acediopsylla Ewing, 1940; Cediopsylla Jordan, 1925</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>Lewis2405</t>
+  </si>
+  <si>
+    <t>Spilopsyllus spillmanni Jordan, 1930</t>
+  </si>
+  <si>
+    <t>tepolita</t>
+  </si>
+  <si>
+    <t>Barrera</t>
   </si>
   <si>
     <t>Lewis2406</t>
   </si>
   <si>
-    <t>Acediopsylla Ewing, 1940</t>
-  </si>
-  <si>
-    <t>Spilopsyllus spillmanni Jordan, 1930</t>
-  </si>
-  <si>
-    <t>Animalia</t>
-  </si>
-  <si>
-    <t>Arthropoda</t>
-  </si>
-  <si>
-    <t>Insecta</t>
-  </si>
-  <si>
-    <t>Siphonaptera</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>Ewing, 1940</t>
-  </si>
-  <si>
-    <t>synonym</t>
-  </si>
-  <si>
-    <t>duplicate canonical name</t>
-  </si>
-  <si>
-    <t>tepolita</t>
-  </si>
-  <si>
-    <t>Barrera</t>
-  </si>
-  <si>
-    <t>Lewis2407</t>
-  </si>
-  <si>
     <t>Spilopsyllus tepolita Barrera, 1967</t>
   </si>
   <si>
     <t>inaequalis inaequalis</t>
   </si>
   <si>
-    <t>(Baker)</t>
+    <t>Lewis2402</t>
+  </si>
+  <si>
+    <t>Spilopsyllus inaequalis inaequalis (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>inaequalis interrupta</t>
   </si>
   <si>
     <t>Lewis2403</t>
   </si>
   <si>
-    <t>Spilopsyllus inaequalis inaequalis (Baker, 1895)</t>
-  </si>
-  <si>
-    <t>inaequalis interrupta</t>
-  </si>
-  <si>
-    <t>Lewis2404</t>
-  </si>
-  <si>
     <t>Spilopsyllus inaequalis interrupta Jordan, 1925</t>
   </si>
   <si>
@@ -267,6 +267,33 @@
     <t>Ceratophyllus</t>
   </si>
   <si>
+    <t>mokrzeckyi</t>
+  </si>
+  <si>
+    <t>(Wagner)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
+  </si>
+  <si>
+    <t>Lewis1727</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
+  </si>
+  <si>
+    <t>acutus</t>
+  </si>
+  <si>
+    <t>Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus</t>
+  </si>
+  <si>
     <t>montana</t>
   </si>
   <si>
@@ -276,19 +303,46 @@
     <t>Lewis1858</t>
   </si>
   <si>
-    <t>Ceratophyllus acutus Baker, 1904</t>
-  </si>
-  <si>
     <t>Oropsylla montana (Baker, 1895)</t>
   </si>
   <si>
-    <t>acutus</t>
-  </si>
-  <si>
-    <t>Baker, 1904</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus</t>
+    <t>Ischnopsyllidae</t>
+  </si>
+  <si>
+    <t>Ischnopsyllinae</t>
+  </si>
+  <si>
+    <t>hexactenus</t>
+  </si>
+  <si>
+    <t>(Kolenati)</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Lewis1210</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus hexactenus (Kolenati, 1856)</t>
+  </si>
+  <si>
+    <t>hexactena</t>
+  </si>
+  <si>
+    <t>petropolitana</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana</t>
   </si>
   <si>
     <t>Ctenophthalmidae</t>
@@ -306,27 +360,9 @@
     <t>Lewis1620</t>
   </si>
   <si>
-    <t>Ceratophyllus hexactena petropolitana Wagner, 1898</t>
-  </si>
-  <si>
     <t>Neopsylla honora Jordan, 1932</t>
   </si>
   <si>
-    <t>hexactena</t>
-  </si>
-  <si>
-    <t>petropolitana</t>
-  </si>
-  <si>
-    <t>subspecies</t>
-  </si>
-  <si>
-    <t>Wagner, 1898</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hexactena petropolitana</t>
-  </si>
-  <si>
     <t>hirundinis</t>
   </si>
   <si>
@@ -336,22 +372,49 @@
     <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
   </si>
   <si>
+    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis</t>
+  </si>
+  <si>
     <t>Lewis337</t>
   </si>
   <si>
     <t>Ceratophyllus hirundinis Chao, 1947</t>
   </si>
   <si>
-    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
-  </si>
-  <si>
     <t>Chao, 1947</t>
   </si>
   <si>
     <t>junior homonym</t>
   </si>
   <si>
-    <t>Ceratophyllus hirundinis</t>
+    <t>vagabundus vagabundus</t>
+  </si>
+  <si>
+    <t>(Boheman)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus digitalis Wahlgren, 1903; Ceratophyllus monedulae Wahlgren, 1907; Ceratophyllus vagabundus orientalis Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Lewis368</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus vagabundus vagabundus (Boheman, 1866)</t>
+  </si>
+  <si>
+    <t>monedulae</t>
+  </si>
+  <si>
+    <t>Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae</t>
   </si>
   <si>
     <t>gallinulae gallinulae</t>
@@ -372,21 +435,48 @@
     <t>Dasypsyllus gallinulae gallinulae (Dale, 1878)</t>
   </si>
   <si>
-    <t>monedulae</t>
-  </si>
-  <si>
     <t>Dale, 1878</t>
   </si>
   <si>
-    <t>Ceratophyllus monedulae</t>
-  </si>
-  <si>
     <t>Ctenophthalminae</t>
   </si>
   <si>
     <t>Ctenophthalmus</t>
   </si>
   <si>
+    <t>agyrtes peusianus</t>
+  </si>
+  <si>
+    <t>Rosicky</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
+  </si>
+  <si>
+    <t>Lewis548</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes peusianus Rosicky, 1955</t>
+  </si>
+  <si>
+    <t>agyrtes</t>
+  </si>
+  <si>
+    <t>slovacicus</t>
+  </si>
+  <si>
+    <t>Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>partim</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus</t>
+  </si>
+  <si>
     <t>agyrtes agyrtes</t>
   </si>
   <si>
@@ -399,27 +489,9 @@
     <t>Lewis537</t>
   </si>
   <si>
-    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
-  </si>
-  <si>
     <t>Ctenophthalmus agyrtes agyrtes (Heller, 1896)</t>
   </si>
   <si>
-    <t>agyrtes</t>
-  </si>
-  <si>
-    <t>slovacicus</t>
-  </si>
-  <si>
-    <t>Rosicky, 1951</t>
-  </si>
-  <si>
-    <t>partim</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes slovacicus</t>
-  </si>
-  <si>
     <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
   </si>
   <si>
@@ -453,6 +525,24 @@
     <t>Glauertidos</t>
   </si>
   <si>
+    <t>Jordan &amp; Rothschild</t>
+  </si>
+  <si>
+    <t>Akmepsylla Wagner, 1933; Glauertidos M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Lewis22</t>
+  </si>
+  <si>
+    <t>Glauertidos M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Acanthopsylla Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>M. Rothschild, 1937</t>
+  </si>
+  <si>
     <t>scintilla scintilla</t>
   </si>
   <si>
@@ -465,18 +555,9 @@
     <t>Lewis19</t>
   </si>
   <si>
-    <t>Glauertidos M. Rothschild, 1937</t>
-  </si>
-  <si>
     <t>Acanthopsylla scintilla scintilla (M. Rothschild, 1936)</t>
   </si>
   <si>
-    <t>M. Rothschild, 1937</t>
-  </si>
-  <si>
-    <t>nomen novum</t>
-  </si>
-  <si>
     <t>nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922</t>
   </si>
   <si>
@@ -495,36 +576,51 @@
     <t>Ischnopsyllus kolenatii</t>
   </si>
   <si>
+    <t>intermedius</t>
+  </si>
+  <si>
+    <t>(Rothschild)</t>
+  </si>
+  <si>
+    <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
+  </si>
+  <si>
+    <t>Lewis1214</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
+  </si>
+  <si>
+    <t>schmitzi</t>
+  </si>
+  <si>
+    <t>Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>female Ischnopsyllus intermedius</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi</t>
+  </si>
+  <si>
     <t>simplex simplex</t>
   </si>
   <si>
-    <t>(Wagner)</t>
-  </si>
-  <si>
     <t>Ceratophyllus danubianus Rothschild, 1909; Citellophilus simplex domicae Rosicky, 1956; Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
   </si>
   <si>
     <t>Lewis443</t>
   </si>
   <si>
-    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
-  </si>
-  <si>
     <t>Citellophilus simplex simplex (Wagner, 1902)</t>
   </si>
   <si>
-    <t>schmitzi</t>
-  </si>
-  <si>
-    <t>Oudemans, 1909</t>
-  </si>
-  <si>
     <t>male of Ischnopsyllus simplex simplex</t>
   </si>
   <si>
-    <t>Ischnopsyllus schmitzi</t>
-  </si>
-  <si>
     <t>Jellisonia</t>
   </si>
   <si>
@@ -534,15 +630,15 @@
     <t>Pleochaetoides Augustson, 1944 (subgenus); Jellisonia Traub, 1944 (subgenus)</t>
   </si>
   <si>
+    <t>Jellisonia Traub, 1944</t>
+  </si>
+  <si>
+    <t>Traub, 1944</t>
+  </si>
+  <si>
     <t>Lewis1251</t>
   </si>
   <si>
-    <t>Jellisonia Traub, 1944</t>
-  </si>
-  <si>
-    <t>Traub, 1944</t>
-  </si>
-  <si>
     <t>Nycteridopsylla</t>
   </si>
   <si>
@@ -561,21 +657,9 @@
     <t>Oropsylla</t>
   </si>
   <si>
-    <t>mokrzeckyi</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
-  </si>
-  <si>
-    <t>Lewis1727</t>
-  </si>
-  <si>
     <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
   </si>
   <si>
-    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
-  </si>
-  <si>
     <t>mandarina</t>
   </si>
   <si>
@@ -585,6 +669,36 @@
     <t>Palaeopsylla</t>
   </si>
   <si>
+    <t>aporema</t>
+  </si>
+  <si>
+    <t>Smit &amp; Rosicky</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
+  </si>
+  <si>
+    <t>Lewis1881</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>Palaeopsylla aporema Smit &amp; Rosicky, 1976</t>
+  </si>
+  <si>
+    <t>makaluensis</t>
+  </si>
+  <si>
+    <t>Brelih, 1975</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis</t>
+  </si>
+  <si>
     <t>tauberi makaluensis</t>
   </si>
   <si>
@@ -597,24 +711,12 @@
     <t>Lewis1940</t>
   </si>
   <si>
-    <t>Palaeopsylla makaluensis Brelih, 1975</t>
-  </si>
-  <si>
     <t>Palaeopsylla tauberi makaluensis Brelih, 1975</t>
   </si>
   <si>
-    <t>makaluensis</t>
-  </si>
-  <si>
-    <t>Brelih, 1975</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
-    <t>Palaeopsylla makaluensis</t>
-  </si>
-  <si>
     <t>Archaeopsyllinae</t>
   </si>
   <si>
@@ -630,33 +732,57 @@
     <t>Lewis516</t>
   </si>
   <si>
+    <t>Pulex canis Curtis, 1826</t>
+  </si>
+  <si>
+    <t>Ctenocephalides canis (Curtis, 1926)</t>
+  </si>
+  <si>
+    <t>Curtis, 1826</t>
+  </si>
+  <si>
+    <t>Pulex canis</t>
+  </si>
+  <si>
     <t>Pulex canis Dugès, 1832</t>
   </si>
   <si>
-    <t>Ctenocephalides canis (Curtis, 1926)</t>
-  </si>
-  <si>
     <t>Dugès, 1832</t>
   </si>
   <si>
-    <t>Pulex canis</t>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>Neopsylla striata Stewart, 1926; Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Lewis2513</t>
+  </si>
+  <si>
+    <t>Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Tamiophila grandis (Rothschild, 1902)</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
   </si>
   <si>
     <t>Pulex gigas Kirby, 1837 (likely a species of Hystrichopsylla)</t>
   </si>
   <si>
-    <t>gigas</t>
-  </si>
-  <si>
-    <t>Kirby, 1837</t>
+    <t>Lewis2738</t>
   </si>
   <si>
     <t>likely a species of Hystrichopsylla</t>
   </si>
   <si>
-    <t>Pulex gigas</t>
-  </si>
-  <si>
     <t>Leptopsyllidae</t>
   </si>
   <si>
@@ -675,84 +801,78 @@
     <t>Lewis1327</t>
   </si>
   <si>
+    <t>Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Leptopsylla segnis (Schönherr, 1811)</t>
+  </si>
+  <si>
+    <t>musculi</t>
+  </si>
+  <si>
+    <t>Pulex musculi</t>
+  </si>
+  <si>
     <t>Pulex musculi Bouché, 1835</t>
   </si>
   <si>
-    <t>Leptopsylla segnis (Schönherr, 1811)</t>
-  </si>
-  <si>
-    <t>musculi</t>
-  </si>
-  <si>
     <t>Bouché, 1835</t>
   </si>
   <si>
     <t>junior homonym of Pulex musculi Dugès, 1832</t>
   </si>
   <si>
-    <t>Pulex musculi</t>
-  </si>
-  <si>
-    <t>Ischnopsyllidae</t>
-  </si>
-  <si>
-    <t>Ischnopsyllinae</t>
-  </si>
-  <si>
-    <t>hexactenus</t>
-  </si>
-  <si>
-    <t>(Kolenati)</t>
-  </si>
-  <si>
-    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Lewis1210</t>
+    <t>Pulex vespertilionis Bouché, 1835</t>
+  </si>
+  <si>
+    <t>vespertilionis</t>
+  </si>
+  <si>
+    <t>Pulex vespertilionis</t>
   </si>
   <si>
     <t>Pulex vespertilionis Dugès, 1832</t>
   </si>
   <si>
-    <t>Ischnopsyllus hexactenus (Kolenati, 1856)</t>
-  </si>
-  <si>
-    <t>vespertilionis</t>
-  </si>
-  <si>
-    <t>Pulex vespertilionis</t>
-  </si>
-  <si>
     <t>Pygiopsylla</t>
   </si>
   <si>
+    <t>hoplia</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
+  </si>
+  <si>
+    <t>Lewis2257</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla hoplia Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>congrua</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua</t>
+  </si>
+  <si>
     <t>zethi</t>
   </si>
   <si>
-    <t>(Rothschild)</t>
-  </si>
-  <si>
     <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (male)</t>
   </si>
   <si>
     <t>Lewis2260</t>
   </si>
   <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
     <t>Pygiopsylla zethi (Rothschild, 1904)</t>
   </si>
   <si>
-    <t>congrua</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua</t>
-  </si>
-  <si>
     <t>Rhadinopsyllinae</t>
   </si>
   <si>
@@ -768,21 +888,45 @@
     <t>Rhadinopsylla semenovi Argyropulo, 1941</t>
   </si>
   <si>
-    <t>Lewis2334</t>
-  </si>
-  <si>
     <t>Rhadinopsylla semenovi Argyropulo, 1946</t>
   </si>
   <si>
+    <t>Rhadinopsylla semenovi</t>
+  </si>
+  <si>
+    <t>Lewis2333</t>
+  </si>
+  <si>
     <t>Argyropulo, 1941</t>
   </si>
   <si>
-    <t>Rhadinopsylla semenovi</t>
+    <t>Doratopsyllinae</t>
   </si>
   <si>
     <t>Spalacopsylla</t>
   </si>
   <si>
+    <t>Ewing</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis41</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930</t>
+  </si>
+  <si>
+    <t>Adoratopsylla Ewing, 1925</t>
+  </si>
+  <si>
+    <t>Pinto, 1930</t>
+  </si>
+  <si>
+    <t>junior synonym</t>
+  </si>
+  <si>
     <t>Kolenati</t>
   </si>
   <si>
@@ -801,9 +945,6 @@
     <t>Kolenati, 1856</t>
   </si>
   <si>
-    <t>junior synonym</t>
-  </si>
-  <si>
     <t>Westwood</t>
   </si>
   <si>
@@ -831,21 +972,21 @@
     <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
   </si>
   <si>
-    <t>Lewis2533</t>
+    <t>Thrassis acamantis (Rothschild, 1905)</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis</t>
+  </si>
+  <si>
+    <t>Lewis2532</t>
   </si>
   <si>
     <t>Thrassis acamantis Stark, 1970</t>
   </si>
   <si>
-    <t>Thrassis acamantis (Rothschild, 1905)</t>
-  </si>
-  <si>
     <t>Stark, 1970</t>
   </si>
   <si>
-    <t>Thrassis acamantis</t>
-  </si>
-  <si>
     <t>Trichopsylla</t>
   </si>
   <si>
@@ -858,12 +999,18 @@
     <t>Lewis91</t>
   </si>
   <si>
+    <t>Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Amalaraeus Ioff, 1936</t>
+  </si>
+  <si>
+    <t>Kolenati, 1863</t>
+  </si>
+  <si>
     <t>Trichopsylla Jordan &amp; Rothschild, 1920</t>
   </si>
   <si>
-    <t>Amalaraeus Ioff, 1936</t>
-  </si>
-  <si>
     <t>Jordan &amp; Rothschild, 1920</t>
   </si>
   <si>
@@ -888,22 +1035,22 @@
     <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
   </si>
   <si>
-    <t>Lewis2710</t>
+    <t>Xenopsylla skrjabini Ioff, 1930</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini</t>
+  </si>
+  <si>
+    <t>Lewis2709</t>
   </si>
   <si>
     <t>Xenopsylla skrjabini Ioff, 1928</t>
   </si>
   <si>
-    <t>Xenopsylla skrjabini Ioff, 1930</t>
-  </si>
-  <si>
     <t>Ioff, 1928</t>
   </si>
   <si>
     <t>only later 1930 did Ioff describe</t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1401,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0D82C-878D-4813-8F66-59CF0CA85FF6}">
-  <dimension ref="A1:AO35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C34E49-690D-4084-ACDB-E3FAAC3563AE}">
+  <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1397,118 +1546,118 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>1930</v>
       </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
       <c r="I2">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Z2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AG2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>58</v>
-      </c>
       <c r="AL2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN2" t="s">
         <v>43</v>
       </c>
       <c r="AO2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
@@ -1522,118 +1671,118 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>1967</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
         <v>50</v>
       </c>
-      <c r="S3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>58</v>
-      </c>
       <c r="AL3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN3" t="s">
         <v>43</v>
       </c>
       <c r="AO3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
@@ -1647,118 +1796,118 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>1895</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
       </c>
       <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
         <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" t="s">
-        <v>50</v>
       </c>
       <c r="S4" t="s">
         <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AG4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AI4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK4" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>58</v>
-      </c>
       <c r="AL4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN4" t="s">
         <v>43</v>
       </c>
       <c r="AO4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
@@ -1775,115 +1924,115 @@
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>1925</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
         <v>69</v>
       </c>
       <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
         <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" t="s">
-        <v>50</v>
       </c>
       <c r="S5" t="s">
         <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AC5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" t="s">
         <v>53</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AG5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" t="s">
         <v>54</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AI5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" t="s">
         <v>55</v>
       </c>
-      <c r="AC5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>58</v>
-      </c>
       <c r="AL5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN5" t="s">
         <v>43</v>
       </c>
       <c r="AO5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
@@ -1897,118 +2046,118 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>1930</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
       </c>
       <c r="I6">
         <v>3233</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
         <v>72</v>
       </c>
       <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="s">
         <v>51</v>
       </c>
-      <c r="T6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AB6" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AC6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>56</v>
-      </c>
       <c r="AG6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH6" t="s">
         <v>73</v>
       </c>
       <c r="AI6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN6" t="s">
         <v>71</v>
       </c>
       <c r="AO6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
@@ -2022,118 +2171,118 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>1967</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
       </c>
       <c r="I7">
         <v>3234</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R7" t="s">
         <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
         <v>52</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AC7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>56</v>
-      </c>
       <c r="AG7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH7" t="s">
         <v>73</v>
       </c>
       <c r="AI7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN7" t="s">
         <v>71</v>
       </c>
       <c r="AO7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -2147,46 +2296,46 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>1895</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
         <v>72</v>
@@ -2195,70 +2344,70 @@
         <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AC8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" t="s">
         <v>53</v>
       </c>
-      <c r="AA8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>56</v>
-      </c>
       <c r="AG8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH8" t="s">
         <v>73</v>
       </c>
       <c r="AI8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN8" t="s">
         <v>71</v>
       </c>
       <c r="AO8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
@@ -2275,43 +2424,43 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>1925</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>69</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R9" t="s">
         <v>72</v>
@@ -2320,70 +2469,70 @@
         <v>70</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="s">
         <v>52</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AC9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" t="s">
         <v>53</v>
       </c>
-      <c r="AA9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>56</v>
-      </c>
       <c r="AG9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH9" t="s">
         <v>73</v>
       </c>
       <c r="AI9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN9" t="s">
         <v>71</v>
       </c>
       <c r="AO9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -2400,740 +2549,740 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>1895</v>
+        <v>1916</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2947</v>
+        <v>2929</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" t="s">
         <v>52</v>
       </c>
-      <c r="Z10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>55</v>
-      </c>
       <c r="AC10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF10" t="s">
         <v>3</v>
       </c>
       <c r="AG10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
       </c>
       <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>1895</v>
+      </c>
+      <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>1932</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>2946</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
         <v>88</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3310</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" t="s">
         <v>89</v>
       </c>
-      <c r="M11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" t="s">
-        <v>91</v>
-      </c>
       <c r="T11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK11" t="s">
         <v>55</v>
       </c>
-      <c r="AC11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>58</v>
-      </c>
       <c r="AL11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AO11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>1856</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>3302</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" t="s">
         <v>97</v>
       </c>
-      <c r="E12" t="s">
+      <c r="T12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD12" t="s">
         <v>98</v>
       </c>
-      <c r="F12">
-        <v>1826</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12">
-        <v>3176</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="AF12" t="s">
         <v>100</v>
       </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="AG12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH12" t="s">
         <v>101</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AI12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN12" t="s">
         <v>102</v>
       </c>
-      <c r="T12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U12" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12" t="s">
-        <v>48</v>
-      </c>
-      <c r="W12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>105</v>
-      </c>
       <c r="AO12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
       </c>
       <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <v>1932</v>
+      </c>
+      <c r="G13" t="s">
         <v>106</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>3309</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
         <v>107</v>
       </c>
-      <c r="F13">
-        <v>1878</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" t="s">
         <v>108</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13">
-        <v>3386</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" t="s">
-        <v>111</v>
-      </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" t="s">
         <v>52</v>
       </c>
-      <c r="Z13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK13" t="s">
         <v>55</v>
       </c>
-      <c r="AC13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>58</v>
-      </c>
       <c r="AL13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AO13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14">
+        <v>1826</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>3175</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" t="s">
         <v>115</v>
       </c>
-      <c r="C14" t="s">
+      <c r="S14" t="s">
+        <v>112</v>
+      </c>
+      <c r="T14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" t="s">
+        <v>47</v>
+      </c>
+      <c r="X14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
+      <c r="AI14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14">
-        <v>1896</v>
-      </c>
-      <c r="G14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14">
-        <v>3330</v>
-      </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" t="s">
-        <v>121</v>
-      </c>
-      <c r="S14" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14" t="s">
-        <v>48</v>
-      </c>
-      <c r="W14" t="s">
-        <v>48</v>
-      </c>
-      <c r="X14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>58</v>
-      </c>
       <c r="AL14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM14" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="AN14" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="AO14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F15">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15">
-        <v>3357</v>
+        <v>3259</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB15" t="s">
         <v>52</v>
       </c>
-      <c r="Z15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>55</v>
-      </c>
       <c r="AC15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE15" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="AF15" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="AG15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH15" t="s">
         <v>125</v>
       </c>
       <c r="AI15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN15" t="s">
         <v>126</v>
       </c>
-      <c r="AN15" t="s">
-        <v>131</v>
-      </c>
       <c r="AO15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
@@ -3144,746 +3293,746 @@
         <v>75</v>
       </c>
       <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>1878</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>3385</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" t="s">
+        <v>131</v>
+      </c>
+      <c r="S16" t="s">
         <v>132</v>
       </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16">
-        <v>1895</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16">
-        <v>3313</v>
-      </c>
-      <c r="J16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" t="s">
-        <v>133</v>
-      </c>
-      <c r="S16" t="s">
-        <v>81</v>
-      </c>
       <c r="T16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB16" t="s">
         <v>52</v>
       </c>
-      <c r="Z16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>55</v>
-      </c>
       <c r="AC16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD16" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="AE16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF16" t="s">
         <v>3</v>
       </c>
       <c r="AG16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AI16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AO16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
         <v>137</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17">
+        <v>1955</v>
+      </c>
+      <c r="G17" t="s">
         <v>138</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17">
+        <v>3072</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
         <v>139</v>
       </c>
-      <c r="E17" t="s">
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" t="s">
         <v>140</v>
       </c>
-      <c r="F17">
-        <v>1936</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="S17" t="s">
         <v>141</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17">
-        <v>3247</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="T17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" t="s">
         <v>142</v>
       </c>
-      <c r="M17" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>48</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="AE17" t="s">
         <v>143</v>
       </c>
-      <c r="S17" t="s">
+      <c r="AF17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH17" t="s">
         <v>144</v>
       </c>
-      <c r="T17" t="s">
-        <v>48</v>
-      </c>
-      <c r="U17" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" t="s">
-        <v>48</v>
-      </c>
-      <c r="X17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AI17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK17" t="s">
         <v>55</v>
       </c>
-      <c r="AC17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF17" t="s">
+      <c r="AL17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO17" t="s">
         <v>56</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
         <v>148</v>
       </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
       <c r="F18">
-        <v>1932</v>
+        <v>1896</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18">
-        <v>3210</v>
+        <v>3329</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="T18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" t="s">
         <v>52</v>
       </c>
-      <c r="Z18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK18" t="s">
         <v>55</v>
       </c>
-      <c r="AC18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>58</v>
-      </c>
       <c r="AL18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM18" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="AN18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AO18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19">
+        <v>1955</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>3263</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" t="s">
+        <v>152</v>
+      </c>
+      <c r="S19" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" t="s">
         <v>153</v>
       </c>
-      <c r="E19" t="s">
+      <c r="AE19" t="s">
         <v>154</v>
       </c>
-      <c r="F19">
-        <v>1902</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="AF19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN19" t="s">
         <v>155</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19">
-        <v>3328</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S19" t="s">
-        <v>158</v>
-      </c>
-      <c r="T19" t="s">
-        <v>48</v>
-      </c>
-      <c r="U19" t="s">
-        <v>48</v>
-      </c>
-      <c r="V19" t="s">
-        <v>48</v>
-      </c>
-      <c r="W19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>162</v>
-      </c>
       <c r="AO19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F20">
-        <v>1944</v>
+        <v>1896</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20">
-        <v>3159</v>
+        <v>3356</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="S20" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="T20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" t="s">
         <v>52</v>
       </c>
-      <c r="Z20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK20" t="s">
         <v>55</v>
       </c>
-      <c r="AC20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>58</v>
-      </c>
       <c r="AL20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM20" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="AN20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AO20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F21">
-        <v>1932</v>
+        <v>1916</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21">
-        <v>2923</v>
+        <v>3211</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R21" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="s">
         <v>52</v>
       </c>
-      <c r="Z21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>55</v>
-      </c>
       <c r="AC21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD21" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AE21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF21" t="s">
         <v>3</v>
       </c>
       <c r="AG21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH21" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AI21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN21" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AO21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
@@ -3894,1246 +4043,1246 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="F22">
-        <v>1916</v>
+        <v>1895</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22">
         <v>3312</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R22" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="S22" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="T22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="s">
         <v>52</v>
       </c>
-      <c r="Z22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK22" t="s">
         <v>55</v>
       </c>
-      <c r="AC22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>58</v>
-      </c>
       <c r="AL22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN22" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="AO22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F23">
-        <v>1975</v>
+        <v>1922</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23">
-        <v>3134</v>
+        <v>3151</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R23" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="S23" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" t="s">
         <v>52</v>
       </c>
-      <c r="Z23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK23" t="s">
         <v>55</v>
       </c>
-      <c r="AC23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>58</v>
-      </c>
       <c r="AL23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM23" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="AN23" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="AO23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="F24">
-        <v>1926</v>
+        <v>1936</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24">
-        <v>3184</v>
+        <v>3247</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R24" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="S24" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="T24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24" t="s">
         <v>52</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AC24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF24" t="s">
         <v>53</v>
       </c>
-      <c r="AA24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AG24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK24" t="s">
         <v>55</v>
       </c>
-      <c r="AC24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>104</v>
-      </c>
       <c r="AL24" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="AM24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN24" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="AO24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="F25">
+        <v>1856</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25">
-        <v>2739</v>
+        <v>3192</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R25" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="S25" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="T25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" t="s">
         <v>52</v>
       </c>
-      <c r="Z25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>55</v>
-      </c>
       <c r="AC25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD25" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="AE25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF25" t="s">
         <v>3</v>
       </c>
       <c r="AG25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="AI25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM25" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="AN25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="AO25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="F26">
-        <v>1811</v>
+        <v>1932</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26">
-        <v>3197</v>
+        <v>3209</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R26" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="S26" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="T26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB26" t="s">
         <v>52</v>
       </c>
-      <c r="Z26" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>55</v>
-      </c>
       <c r="AC26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD26" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="AE26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF26" t="s">
         <v>3</v>
       </c>
       <c r="AG26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="AI26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK26" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM26" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="AN26" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="AO26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="F27">
-        <v>1856</v>
+        <v>1898</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27">
-        <v>3367</v>
+        <v>3193</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R27" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="S27" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27" t="s">
         <v>52</v>
       </c>
-      <c r="Z27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>55</v>
-      </c>
       <c r="AC27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD27" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="AE27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF27" t="s">
         <v>3</v>
       </c>
       <c r="AG27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH27" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AI27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM27" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="AN27" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="AO27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="F28">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="G28" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28">
-        <v>2985</v>
+        <v>3327</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R28" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="S28" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="T28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB28" t="s">
         <v>52</v>
       </c>
-      <c r="Z28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>55</v>
-      </c>
       <c r="AC28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD28" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="AE28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF28" t="s">
         <v>3</v>
       </c>
       <c r="AG28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH28" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="AI28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AN28" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="AO28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F29">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29">
-        <v>2994</v>
+        <v>3158</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R29" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="S29" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="T29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" t="s">
         <v>52</v>
       </c>
-      <c r="Z29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK29" t="s">
         <v>55</v>
       </c>
-      <c r="AC29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>58</v>
-      </c>
       <c r="AL29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM29" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AN29" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="AO29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>1856</v>
       </c>
       <c r="G30" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30">
-        <v>2752</v>
+        <v>2881</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R30" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="S30" t="s">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="T30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="s">
         <v>52</v>
       </c>
-      <c r="Z30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK30" t="s">
         <v>55</v>
       </c>
-      <c r="AC30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>255</v>
-      </c>
       <c r="AL30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN30" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="AO30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
       <c r="F31">
-        <v>1833</v>
+        <v>1932</v>
       </c>
       <c r="G31" t="s">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31">
-        <v>3158</v>
+        <v>2922</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R31" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="S31" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="T31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" t="s">
         <v>52</v>
       </c>
-      <c r="Z31" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK31" t="s">
         <v>55</v>
       </c>
-      <c r="AC31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>255</v>
-      </c>
       <c r="AL31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN31" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="AO31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.35">
@@ -5144,121 +5293,121 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="F32">
-        <v>1905</v>
+        <v>1895</v>
       </c>
       <c r="G32" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L32" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R32" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="S32" t="s">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" t="s">
         <v>52</v>
       </c>
-      <c r="Z32" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK32" t="s">
         <v>55</v>
       </c>
-      <c r="AC32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>58</v>
-      </c>
       <c r="AL32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN32" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="AO32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.35">
@@ -5269,371 +5418,2746 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="F33">
-        <v>1936</v>
+        <v>1916</v>
       </c>
       <c r="G33" t="s">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33">
-        <v>3153</v>
+        <v>3311</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R33" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="S33" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" t="s">
         <v>52</v>
       </c>
-      <c r="Z33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK33" t="s">
         <v>55</v>
       </c>
-      <c r="AC33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>277</v>
-      </c>
       <c r="AL33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM33" t="s">
-        <v>277</v>
+        <v>47</v>
       </c>
       <c r="AN33" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="AO33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="F34">
-        <v>1936</v>
+        <v>1976</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34">
-        <v>3283</v>
+        <v>2951</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L34" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R34" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="S34" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="T34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB34" t="s">
         <v>52</v>
       </c>
-      <c r="Z34" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK34" t="s">
         <v>55</v>
       </c>
-      <c r="AC34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>277</v>
-      </c>
       <c r="AL34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM34" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="AN34" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AO34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F35">
-        <v>1930</v>
+        <v>1975</v>
       </c>
       <c r="G35" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35">
-        <v>3032</v>
+        <v>3133</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R35" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="S35" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="T35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB35" t="s">
         <v>52</v>
       </c>
-      <c r="Z35" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>55</v>
-      </c>
       <c r="AC35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD35" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="AE35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF35" t="s">
         <v>3</v>
       </c>
       <c r="AG35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH35" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36">
+        <v>1926</v>
+      </c>
+      <c r="G36" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36">
+        <v>2840</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" t="s">
+        <v>47</v>
+      </c>
+      <c r="P36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" t="s">
+        <v>232</v>
+      </c>
+      <c r="S36" t="s">
+        <v>233</v>
+      </c>
+      <c r="T36" t="s">
+        <v>47</v>
+      </c>
+      <c r="U36" t="s">
+        <v>47</v>
+      </c>
+      <c r="V36" t="s">
+        <v>47</v>
+      </c>
+      <c r="W36" t="s">
+        <v>47</v>
+      </c>
+      <c r="X36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37">
+        <v>1926</v>
+      </c>
+      <c r="G37" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37">
+        <v>3183</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" t="s">
+        <v>236</v>
+      </c>
+      <c r="S37" t="s">
+        <v>233</v>
+      </c>
+      <c r="T37" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" t="s">
+        <v>47</v>
+      </c>
+      <c r="W37" t="s">
+        <v>47</v>
+      </c>
+      <c r="X37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38">
+        <v>1902</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38">
+        <v>3236</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" t="s">
+        <v>240</v>
+      </c>
+      <c r="M38" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" t="s">
+        <v>241</v>
+      </c>
+      <c r="S38" t="s">
+        <v>242</v>
+      </c>
+      <c r="T38" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" t="s">
+        <v>47</v>
+      </c>
+      <c r="X38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39">
+        <v>2738</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" t="s">
+        <v>241</v>
+      </c>
+      <c r="S39" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" t="s">
+        <v>47</v>
+      </c>
+      <c r="W39" t="s">
+        <v>47</v>
+      </c>
+      <c r="X39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40">
+        <v>1811</v>
+      </c>
+      <c r="G40" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40">
+        <v>2892</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" t="s">
+        <v>255</v>
+      </c>
+      <c r="S40" t="s">
+        <v>256</v>
+      </c>
+      <c r="T40" t="s">
+        <v>47</v>
+      </c>
+      <c r="U40" t="s">
+        <v>47</v>
+      </c>
+      <c r="V40" t="s">
+        <v>47</v>
+      </c>
+      <c r="W40" t="s">
+        <v>47</v>
+      </c>
+      <c r="X40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41">
+        <v>1811</v>
+      </c>
+      <c r="G41" t="s">
+        <v>253</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41">
+        <v>3196</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" t="s">
+        <v>259</v>
+      </c>
+      <c r="S41" t="s">
+        <v>256</v>
+      </c>
+      <c r="T41" t="s">
+        <v>47</v>
+      </c>
+      <c r="U41" t="s">
+        <v>47</v>
+      </c>
+      <c r="V41" t="s">
+        <v>47</v>
+      </c>
+      <c r="W41" t="s">
+        <v>47</v>
+      </c>
+      <c r="X41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42">
+        <v>1856</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <v>3346</v>
+      </c>
+      <c r="J42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R42" t="s">
+        <v>262</v>
+      </c>
+      <c r="S42" t="s">
+        <v>97</v>
+      </c>
+      <c r="T42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42" t="s">
+        <v>47</v>
+      </c>
+      <c r="V42" t="s">
+        <v>47</v>
+      </c>
+      <c r="W42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43">
+        <v>1856</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43">
+        <v>3366</v>
+      </c>
+      <c r="J43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" t="s">
+        <v>95</v>
+      </c>
+      <c r="M43" t="s">
+        <v>47</v>
+      </c>
+      <c r="N43" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" t="s">
+        <v>265</v>
+      </c>
+      <c r="S43" t="s">
+        <v>97</v>
+      </c>
+      <c r="T43" t="s">
+        <v>47</v>
+      </c>
+      <c r="U43" t="s">
+        <v>47</v>
+      </c>
+      <c r="V43" t="s">
+        <v>47</v>
+      </c>
+      <c r="W43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44">
+        <v>1922</v>
+      </c>
+      <c r="G44" t="s">
+        <v>268</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44">
+        <v>2983</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" t="s">
+        <v>47</v>
+      </c>
+      <c r="P44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44" t="s">
+        <v>270</v>
+      </c>
+      <c r="S44" t="s">
+        <v>271</v>
+      </c>
+      <c r="T44" t="s">
+        <v>47</v>
+      </c>
+      <c r="U44" t="s">
+        <v>47</v>
+      </c>
+      <c r="V44" t="s">
+        <v>47</v>
+      </c>
+      <c r="W44" t="s">
+        <v>47</v>
+      </c>
+      <c r="X44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" t="s">
+        <v>275</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45">
+        <v>1904</v>
+      </c>
+      <c r="G45" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45">
+        <v>2984</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" t="s">
+        <v>277</v>
+      </c>
+      <c r="M45" t="s">
+        <v>47</v>
+      </c>
+      <c r="N45" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>47</v>
+      </c>
+      <c r="R45" t="s">
+        <v>270</v>
+      </c>
+      <c r="S45" t="s">
+        <v>278</v>
+      </c>
+      <c r="T45" t="s">
+        <v>47</v>
+      </c>
+      <c r="U45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V45" t="s">
+        <v>47</v>
+      </c>
+      <c r="W45" t="s">
+        <v>47</v>
+      </c>
+      <c r="X45" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46">
+        <v>1946</v>
+      </c>
+      <c r="G46" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46">
+        <v>2993</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" t="s">
+        <v>286</v>
+      </c>
+      <c r="M46" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" t="s">
+        <v>283</v>
+      </c>
+      <c r="S46" t="s">
+        <v>284</v>
+      </c>
+      <c r="T46" t="s">
+        <v>47</v>
+      </c>
+      <c r="U46" t="s">
+        <v>47</v>
+      </c>
+      <c r="V46" t="s">
+        <v>47</v>
+      </c>
+      <c r="W46" t="s">
+        <v>47</v>
+      </c>
+      <c r="X46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH46" t="s">
         <v>287</v>
       </c>
-      <c r="AI35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM35" t="s">
+      <c r="AI46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
         <v>288</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="C47" t="s">
         <v>289</v>
       </c>
-      <c r="AO35" t="s">
-        <v>59</v>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47">
+        <v>1925</v>
+      </c>
+      <c r="G47" t="s">
+        <v>291</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47">
+        <v>2742</v>
+      </c>
+      <c r="J47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" t="s">
+        <v>292</v>
+      </c>
+      <c r="M47" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" t="s">
+        <v>293</v>
+      </c>
+      <c r="S47" t="s">
+        <v>294</v>
+      </c>
+      <c r="T47" t="s">
+        <v>47</v>
+      </c>
+      <c r="U47" t="s">
+        <v>47</v>
+      </c>
+      <c r="V47" t="s">
+        <v>47</v>
+      </c>
+      <c r="W47" t="s">
+        <v>47</v>
+      </c>
+      <c r="X47" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>297</v>
+      </c>
+      <c r="F48">
+        <v>1856</v>
+      </c>
+      <c r="G48" t="s">
+        <v>298</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48">
+        <v>2751</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>299</v>
+      </c>
+      <c r="M48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>47</v>
+      </c>
+      <c r="R48" t="s">
+        <v>300</v>
+      </c>
+      <c r="S48" t="s">
+        <v>301</v>
+      </c>
+      <c r="T48" t="s">
+        <v>47</v>
+      </c>
+      <c r="U48" t="s">
+        <v>47</v>
+      </c>
+      <c r="V48" t="s">
+        <v>47</v>
+      </c>
+      <c r="W48" t="s">
+        <v>47</v>
+      </c>
+      <c r="X48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49">
+        <v>1833</v>
+      </c>
+      <c r="G49" t="s">
+        <v>304</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49">
+        <v>3157</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49" t="s">
+        <v>305</v>
+      </c>
+      <c r="M49" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49" t="s">
+        <v>306</v>
+      </c>
+      <c r="S49" t="s">
+        <v>307</v>
+      </c>
+      <c r="T49" t="s">
+        <v>47</v>
+      </c>
+      <c r="U49" t="s">
+        <v>47</v>
+      </c>
+      <c r="V49" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" t="s">
+        <v>47</v>
+      </c>
+      <c r="X49" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" t="s">
+        <v>310</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50">
+        <v>1905</v>
+      </c>
+      <c r="G50" t="s">
+        <v>311</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50">
+        <v>3238</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" t="s">
+        <v>314</v>
+      </c>
+      <c r="M50" t="s">
+        <v>47</v>
+      </c>
+      <c r="N50" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>47</v>
+      </c>
+      <c r="R50" t="s">
+        <v>315</v>
+      </c>
+      <c r="S50" t="s">
+        <v>312</v>
+      </c>
+      <c r="T50" t="s">
+        <v>47</v>
+      </c>
+      <c r="U50" t="s">
+        <v>47</v>
+      </c>
+      <c r="V50" t="s">
+        <v>47</v>
+      </c>
+      <c r="W50" t="s">
+        <v>47</v>
+      </c>
+      <c r="X50" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>317</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51">
+        <v>1936</v>
+      </c>
+      <c r="G51" t="s">
+        <v>319</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51">
+        <v>2743</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>320</v>
+      </c>
+      <c r="M51" t="s">
+        <v>47</v>
+      </c>
+      <c r="N51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>47</v>
+      </c>
+      <c r="R51" t="s">
+        <v>321</v>
+      </c>
+      <c r="S51" t="s">
+        <v>322</v>
+      </c>
+      <c r="T51" t="s">
+        <v>47</v>
+      </c>
+      <c r="U51" t="s">
+        <v>47</v>
+      </c>
+      <c r="V51" t="s">
+        <v>47</v>
+      </c>
+      <c r="W51" t="s">
+        <v>47</v>
+      </c>
+      <c r="X51" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52">
+        <v>1936</v>
+      </c>
+      <c r="G52" t="s">
+        <v>319</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52">
+        <v>3152</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" t="s">
+        <v>320</v>
+      </c>
+      <c r="M52" t="s">
+        <v>47</v>
+      </c>
+      <c r="N52" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" t="s">
+        <v>47</v>
+      </c>
+      <c r="P52" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>47</v>
+      </c>
+      <c r="R52" t="s">
+        <v>324</v>
+      </c>
+      <c r="S52" t="s">
+        <v>322</v>
+      </c>
+      <c r="T52" t="s">
+        <v>47</v>
+      </c>
+      <c r="U52" t="s">
+        <v>47</v>
+      </c>
+      <c r="V52" t="s">
+        <v>47</v>
+      </c>
+      <c r="W52" t="s">
+        <v>47</v>
+      </c>
+      <c r="X52" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53">
+        <v>1936</v>
+      </c>
+      <c r="G53" t="s">
+        <v>319</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53">
+        <v>3282</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" t="s">
+        <v>320</v>
+      </c>
+      <c r="M53" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" t="s">
+        <v>47</v>
+      </c>
+      <c r="O53" t="s">
+        <v>47</v>
+      </c>
+      <c r="P53" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>47</v>
+      </c>
+      <c r="R53" t="s">
+        <v>327</v>
+      </c>
+      <c r="S53" t="s">
+        <v>322</v>
+      </c>
+      <c r="T53" t="s">
+        <v>47</v>
+      </c>
+      <c r="U53" t="s">
+        <v>47</v>
+      </c>
+      <c r="V53" t="s">
+        <v>47</v>
+      </c>
+      <c r="W53" t="s">
+        <v>47</v>
+      </c>
+      <c r="X53" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" t="s">
+        <v>331</v>
+      </c>
+      <c r="E54" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54">
+        <v>1930</v>
+      </c>
+      <c r="G54" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54">
+        <v>3031</v>
+      </c>
+      <c r="J54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" t="s">
+        <v>335</v>
+      </c>
+      <c r="M54" t="s">
+        <v>47</v>
+      </c>
+      <c r="N54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" t="s">
+        <v>47</v>
+      </c>
+      <c r="P54" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>47</v>
+      </c>
+      <c r="R54" t="s">
+        <v>336</v>
+      </c>
+      <c r="S54" t="s">
+        <v>333</v>
+      </c>
+      <c r="T54" t="s">
+        <v>47</v>
+      </c>
+      <c r="U54" t="s">
+        <v>47</v>
+      </c>
+      <c r="V54" t="s">
+        <v>47</v>
+      </c>
+      <c r="W54" t="s">
+        <v>47</v>
+      </c>
+      <c r="X54" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>334</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/input/Lewis_removed.xlsx
+++ b/input/Lewis_removed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC00972-B8FE-4907-94E7-B981718925D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CB9852-1D61-4C46-B561-C623AB65B177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lewis_duplicates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="333">
   <si>
     <t>family</t>
   </si>
@@ -163,6 +163,9 @@
     <t>Lewis</t>
   </si>
   <si>
+    <t>Lewis1252</t>
+  </si>
+  <si>
     <t>Jellisonia Traub, 1944</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
     <t>Traub, 1944</t>
   </si>
   <si>
-    <t>accepted</t>
-  </si>
-  <si>
     <t>Ceratophyllus</t>
   </si>
   <si>
@@ -196,12 +196,30 @@
     <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
   </si>
   <si>
+    <t>Lewis338</t>
+  </si>
+  <si>
     <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
   </si>
   <si>
     <t>Ceratophyllus hirundinis</t>
   </si>
   <si>
+    <t>Rhopalopsyllidae</t>
+  </si>
+  <si>
+    <t>Rhopalopsyllinae</t>
+  </si>
+  <si>
+    <t>Polygenis</t>
+  </si>
+  <si>
+    <t>dentei</t>
+  </si>
+  <si>
+    <t>Polygenis dentei</t>
+  </si>
+  <si>
     <t>Ctenophthalmidae</t>
   </si>
   <si>
@@ -220,6 +238,9 @@
     <t>Rhadinopsylla semenovi Argyropulo, 1941</t>
   </si>
   <si>
+    <t>Lewis2333</t>
+  </si>
+  <si>
     <t>Rhadinopsylla semenovi Argyropulo, 1946</t>
   </si>
   <si>
@@ -238,6 +259,9 @@
     <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
   </si>
   <si>
+    <t>Lewis2533</t>
+  </si>
+  <si>
     <t>Thrassis acamantis (Rothschild, 1905)</t>
   </si>
   <si>
@@ -262,34 +286,181 @@
     <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
   </si>
   <si>
+    <t>Lewis2710</t>
+  </si>
+  <si>
     <t>Xenopsylla skrjabini Ioff, 1930</t>
   </si>
   <si>
     <t>Xenopsylla skrjabini</t>
   </si>
   <si>
-    <t>Rhopalopsyllidae</t>
-  </si>
-  <si>
-    <t>Rhopalopsyllinae</t>
-  </si>
-  <si>
-    <t>Polygenis</t>
-  </si>
-  <si>
-    <t>dentei</t>
-  </si>
-  <si>
-    <t>Guimaráes</t>
-  </si>
-  <si>
-    <t>Polygenis dentei Guimaráes, 1947</t>
-  </si>
-  <si>
-    <t>Guimaráes, 1947</t>
-  </si>
-  <si>
-    <t>Polygenis dentei</t>
+    <t>Ischnopsyllidae</t>
+  </si>
+  <si>
+    <t>Ischnopsyllinae</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla</t>
+  </si>
+  <si>
+    <t>hexactenus</t>
+  </si>
+  <si>
+    <t>(Kolenati)</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Lewis1211</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus hexactenus (Kolenati, 1856)</t>
+  </si>
+  <si>
+    <t>bouchei</t>
+  </si>
+  <si>
+    <t>Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei</t>
+  </si>
+  <si>
+    <t>Leptopsyllidae</t>
+  </si>
+  <si>
+    <t>Leptopsyllinae</t>
+  </si>
+  <si>
+    <t>Pulex</t>
+  </si>
+  <si>
+    <t>segnis</t>
+  </si>
+  <si>
+    <t>(Schönherr)</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
+  </si>
+  <si>
+    <t>Lewis2893</t>
+  </si>
+  <si>
+    <t>Lewis1328</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Leptopsylla segnis (Schönherr, 1811)</t>
+  </si>
+  <si>
+    <t>musculi</t>
+  </si>
+  <si>
+    <t>Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Pulex musculi</t>
+  </si>
+  <si>
+    <t>Neopsyllinae</t>
+  </si>
+  <si>
+    <t>honora</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Neopsylla rhombosa Chen &amp; Wei, 1978</t>
+  </si>
+  <si>
+    <t>Lewis2924</t>
+  </si>
+  <si>
+    <t>Lewis1621</t>
+  </si>
+  <si>
+    <t>Neopsylla honora Jordan, 1932</t>
+  </si>
+  <si>
+    <t>mokrzeckyi</t>
+  </si>
+  <si>
+    <t>(Wagner)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
+  </si>
+  <si>
+    <t>Lewis1728</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
+  </si>
+  <si>
+    <t>acutus</t>
+  </si>
+  <si>
+    <t>Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>(Baker)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Lewis2949</t>
+  </si>
+  <si>
+    <t>Lewis1859</t>
+  </si>
+  <si>
+    <t>Oropsylla montana (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>pygaerus</t>
+  </si>
+  <si>
+    <t>Polygenis dentei Guimarães, 1947</t>
+  </si>
+  <si>
+    <t>Lewis2979</t>
+  </si>
+  <si>
+    <t>Lewis2221</t>
+  </si>
+  <si>
+    <t>Polygenis pygaerus (Wagner, 1937)</t>
+  </si>
+  <si>
+    <t>Guimarães, 1947</t>
+  </si>
+  <si>
+    <t>Lewis2996</t>
+  </si>
+  <si>
+    <t>Argyropulo, 1941</t>
   </si>
   <si>
     <t>Spilopsyllinae</t>
@@ -298,9 +469,6 @@
     <t>Acediopsylla</t>
   </si>
   <si>
-    <t>(Baker)</t>
-  </si>
-  <si>
     <t>Acediopsylla Ewing, 1940; Cediopsylla Jordan, 1925</t>
   </si>
   <si>
@@ -313,7 +481,16 @@
     <t>Ewing, 1940</t>
   </si>
   <si>
-    <t>synonym</t>
+    <t>spillmanni</t>
+  </si>
+  <si>
+    <t>Lewis3002</t>
+  </si>
+  <si>
+    <t>Lewis2405</t>
+  </si>
+  <si>
+    <t>Spilopsyllus spillmanni Jordan, 1930</t>
   </si>
   <si>
     <t>tepolita</t>
@@ -322,175 +499,22 @@
     <t>Barrera</t>
   </si>
   <si>
-    <t>Lewis13</t>
+    <t>Lewis3003</t>
+  </si>
+  <si>
+    <t>Lewis2406</t>
   </si>
   <si>
     <t>Spilopsyllus tepolita Barrera, 1967</t>
   </si>
   <si>
-    <t>spillmanni</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Lewis15</t>
-  </si>
-  <si>
-    <t>Spilopsyllus spillmanni Jordan, 1930</t>
-  </si>
-  <si>
-    <t>mokrzeckyi</t>
-  </si>
-  <si>
-    <t>(Wagner)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
-  </si>
-  <si>
-    <t>Lewis57</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus Baker, 1904</t>
-  </si>
-  <si>
-    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
-  </si>
-  <si>
-    <t>acutus</t>
-  </si>
-  <si>
-    <t>Baker, 1904</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus</t>
-  </si>
-  <si>
-    <t>montana</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
-  </si>
-  <si>
-    <t>Lewis58</t>
-  </si>
-  <si>
-    <t>Oropsylla montana (Baker, 1895)</t>
-  </si>
-  <si>
-    <t>Neopsyllinae</t>
-  </si>
-  <si>
-    <t>Nycteridopsylla</t>
-  </si>
-  <si>
-    <t>honora</t>
-  </si>
-  <si>
-    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Neopsylla rhombosa Chen &amp; Wei, 1978</t>
-  </si>
-  <si>
-    <t>Lewis281</t>
-  </si>
-  <si>
-    <t>Nycteridopsylla bouchei Oudemans, 1906</t>
-  </si>
-  <si>
-    <t>Neopsylla honora Jordan, 1932</t>
-  </si>
-  <si>
-    <t>bouchei</t>
-  </si>
-  <si>
-    <t>Oudemans, 1906</t>
-  </si>
-  <si>
-    <t>Nycteridopsylla bouchei</t>
-  </si>
-  <si>
-    <t>Ischnopsyllidae</t>
-  </si>
-  <si>
-    <t>Ischnopsyllinae</t>
-  </si>
-  <si>
-    <t>hexactenus</t>
-  </si>
-  <si>
-    <t>(Kolenati)</t>
-  </si>
-  <si>
-    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Lewis282</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus hexactenus (Kolenati, 1856)</t>
-  </si>
-  <si>
-    <t>pygaerus</t>
-  </si>
-  <si>
-    <t>Polygenis dentei Guimarães, 1947</t>
-  </si>
-  <si>
-    <t>Lewis323</t>
-  </si>
-  <si>
-    <t>Polygenis pygaerus (Wagner, 1937)</t>
-  </si>
-  <si>
-    <t>Guimarães, 1947</t>
-  </si>
-  <si>
-    <t>Leptopsyllidae</t>
-  </si>
-  <si>
-    <t>Leptopsyllinae</t>
-  </si>
-  <si>
-    <t>Pulex</t>
-  </si>
-  <si>
-    <t>segnis</t>
-  </si>
-  <si>
-    <t>(Schönherr)</t>
-  </si>
-  <si>
-    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
-  </si>
-  <si>
-    <t>Lewis346</t>
-  </si>
-  <si>
-    <t>Pulex musculi Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Leptopsylla segnis (Schönherr, 1811)</t>
-  </si>
-  <si>
-    <t>musculi</t>
-  </si>
-  <si>
-    <t>Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Pulex musculi</t>
-  </si>
-  <si>
-    <t>Lewis367</t>
-  </si>
-  <si>
-    <t>Argyropulo, 1941</t>
-  </si>
-  <si>
     <t>inaequalis inaequalis</t>
   </si>
   <si>
-    <t>Lewis11</t>
+    <t>Lewis3149</t>
+  </si>
+  <si>
+    <t>Lewis2402</t>
   </si>
   <si>
     <t>Spilopsyllus inaequalis inaequalis (Baker, 1895)</t>
@@ -499,12 +523,48 @@
     <t>inaequalis interrupta</t>
   </si>
   <si>
-    <t>Lewis14</t>
+    <t>Lewis3150</t>
+  </si>
+  <si>
+    <t>Lewis2403</t>
   </si>
   <si>
     <t>Spilopsyllus inaequalis interrupta Jordan, 1925</t>
   </si>
   <si>
+    <t>Ischnopsyllus</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii Wagner, 1930</t>
+  </si>
+  <si>
+    <t>kolenatii</t>
+  </si>
+  <si>
+    <t>Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii</t>
+  </si>
+  <si>
+    <t>Lewis3212</t>
+  </si>
+  <si>
+    <t>Diamanus</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>hopkinsi</t>
+  </si>
+  <si>
+    <t>Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi</t>
+  </si>
+  <si>
     <t>Cediopsylla</t>
   </si>
   <si>
@@ -514,36 +574,15 @@
     <t>Jordan, 1925</t>
   </si>
   <si>
-    <t>Diamanus</t>
-  </si>
-  <si>
-    <t>Diamanus hopkinsi Vargas, 1955</t>
-  </si>
-  <si>
-    <t>hopkinsi</t>
-  </si>
-  <si>
-    <t>Vargas, 1955</t>
-  </si>
-  <si>
-    <t>Diamanus hopkinsi</t>
-  </si>
-  <si>
-    <t>grandis</t>
-  </si>
-  <si>
-    <t>Neopsylla striata Stewart, 1926; Pulex gigas Kirby, 1837</t>
-  </si>
-  <si>
-    <t>Lewis272</t>
+    <t>Lewis3236</t>
+  </si>
+  <si>
+    <t>Lewis3237</t>
   </si>
   <si>
     <t>Pulex gigas Kirby, 1837</t>
   </si>
   <si>
-    <t>Tamiophila grandis (Rothschild, 1902)</t>
-  </si>
-  <si>
     <t>gigas</t>
   </si>
   <si>
@@ -553,22 +592,7 @@
     <t>Pulex gigas</t>
   </si>
   <si>
-    <t>Ischnopsyllus</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus kolenatii Wagner, 1930</t>
-  </si>
-  <si>
-    <t>kolenatii</t>
-  </si>
-  <si>
-    <t>Wagner, 1930</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus kolenatii</t>
-  </si>
-  <si>
-    <t>Lewis399</t>
+    <t>Lewis3241</t>
   </si>
   <si>
     <t>Thrassis acamantis Stark, 1970</t>
@@ -577,33 +601,18 @@
     <t>Stark, 1970</t>
   </si>
   <si>
-    <t>vagabundus vagabundus</t>
-  </si>
-  <si>
-    <t>(Boheman)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus digitalis Wahlgren, 1903; Ceratophyllus monedulae Wahlgren, 1907; Ceratophyllus vagabundus orientalis Wagner, 1930</t>
-  </si>
-  <si>
-    <t>Lewis78</t>
-  </si>
-  <si>
-    <t>Ceratophyllus monedulae Wahlgren, 1907</t>
-  </si>
-  <si>
-    <t>Ceratophyllus vagabundus vagabundus (Boheman, 1866)</t>
-  </si>
-  <si>
     <t>monedulae</t>
   </si>
   <si>
-    <t>Wahlgren, 1907</t>
-  </si>
-  <si>
     <t>Ceratophyllus monedulae</t>
   </si>
   <si>
+    <t>Lewis3282</t>
+  </si>
+  <si>
+    <t>Lewis3283</t>
+  </si>
+  <si>
     <t>Ceratophyllus hexactena petropolitana Wagner, 1898</t>
   </si>
   <si>
@@ -622,18 +631,21 @@
     <t>Ceratophyllus hexactena petropolitana</t>
   </si>
   <si>
-    <t>Pulex vespertilionis Bouché, 1835</t>
+    <t>Lewis3312</t>
+  </si>
+  <si>
+    <t>Lewis3315</t>
   </si>
   <si>
     <t>vespertilionis</t>
   </si>
   <si>
-    <t>Bouché, 1835</t>
-  </si>
-  <si>
     <t>Pulex vespertilionis</t>
   </si>
   <si>
+    <t>Lewis3369</t>
+  </si>
+  <si>
     <t>Pulex vespertilionis Dugès, 1832</t>
   </si>
   <si>
@@ -646,7 +658,10 @@
     <t>Ceratophyllus arvenis Dale, 1878; Ceratophyllus atricapillae Dale, 1878; Ceratophyllus caudati Dale 1878; Ceratophyllus cinereae Dale, 1878; Ceratophyllus citrinellae Dale, 1878; Ceratophyllus garruli Dale, 1878; Ceratophyllus merulae Dale, 1878; Ceratophyllus monedulae Dale, 1878; Ceratophyllus newsteadi Rothschild, 1901; Ceratophyllus pyrrhulae Dale, 1878; Ceratophyllus trochili Dale, 1878; Ceratophyllus viscivora Dale, 1878; Dasypsyllus gallinulae zilianus Peus, 1954</t>
   </si>
   <si>
-    <t>Lewis64</t>
+    <t>Lewis3388</t>
+  </si>
+  <si>
+    <t>Lewis849</t>
   </si>
   <si>
     <t>Ceratophyllus monedulae Dale, 1878</t>
@@ -664,39 +679,21 @@
     <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
   </si>
   <si>
-    <t>Lewis404</t>
-  </si>
-  <si>
-    <t>Trichopsylla Kolenati, 1863</t>
+    <t>Lewis91</t>
   </si>
   <si>
     <t>Amalaraeus Ioff, 1936</t>
   </si>
   <si>
-    <t>Kolenati, 1863</t>
-  </si>
-  <si>
     <t>Pygiopsyllidae</t>
   </si>
   <si>
     <t>Glauertidos</t>
   </si>
   <si>
-    <t>Jordan &amp; Rothschild</t>
-  </si>
-  <si>
-    <t>Akmepsylla Wagner, 1933; Glauertidos M. Rothschild, 1937</t>
-  </si>
-  <si>
-    <t>Lewis20</t>
-  </si>
-  <si>
     <t>Glauertidos M. Rothschild, 1937</t>
   </si>
   <si>
-    <t>Acanthopsylla Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
     <t>M. Rothschild, 1937</t>
   </si>
   <si>
@@ -706,54 +703,24 @@
     <t>Palaeopsylla</t>
   </si>
   <si>
-    <t>aporema</t>
-  </si>
-  <si>
-    <t>Smit &amp; Rosicky</t>
-  </si>
-  <si>
-    <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
-  </si>
-  <si>
-    <t>Lewis296</t>
-  </si>
-  <si>
     <t>Palaeopsylla makaluensis Brelih, 1975</t>
   </si>
   <si>
-    <t>Palaeopsylla aporema Smit &amp; Rosicky, 1976</t>
-  </si>
-  <si>
     <t>makaluensis</t>
   </si>
   <si>
     <t>Brelih, 1975</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Palaeopsylla makaluensis</t>
   </si>
   <si>
     <t>Pygiopsylla</t>
   </si>
   <si>
-    <t>hoplia</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
-  </si>
-  <si>
-    <t>Lewis354</t>
-  </si>
-  <si>
     <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
   </si>
   <si>
-    <t>Pygiopsylla hoplia Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
     <t>congrua</t>
   </si>
   <si>
@@ -763,33 +730,195 @@
     <t>Pygiopsylla congrua</t>
   </si>
   <si>
-    <t>intermedius</t>
-  </si>
-  <si>
-    <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
-  </si>
-  <si>
-    <t>Lewis110</t>
-  </si>
-  <si>
     <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
   </si>
   <si>
-    <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
-  </si>
-  <si>
     <t>schmitzi</t>
   </si>
   <si>
     <t>Oudemans, 1909</t>
   </si>
   <si>
-    <t>female Ischnopsyllus intermedius</t>
-  </si>
-  <si>
     <t>Ischnopsyllus schmitzi</t>
   </si>
   <si>
+    <t>junior homonym</t>
+  </si>
+  <si>
+    <t>Lewis3155</t>
+  </si>
+  <si>
+    <t>Trichopsylla Jordan &amp; Rothschild, 1920</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1920</t>
+  </si>
+  <si>
+    <t>junior homonym of Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Lewis3285</t>
+  </si>
+  <si>
+    <t>Trichopsylla Ewing &amp; Fox, 1943</t>
+  </si>
+  <si>
+    <t>Ewing &amp; Fox, 1943</t>
+  </si>
+  <si>
+    <t>Pulex gigas Kirby, 1837 (likely a species of Hystrichopsylla)</t>
+  </si>
+  <si>
+    <t>Lewis2780</t>
+  </si>
+  <si>
+    <t>likely a species of Hystrichopsylla</t>
+  </si>
+  <si>
+    <t>zethi</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (male)</t>
+  </si>
+  <si>
+    <t>Lewis2987</t>
+  </si>
+  <si>
+    <t>Lewis2260</t>
+  </si>
+  <si>
+    <t>Pygiopsylla zethi (Rothschild, 1904)</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>tauberi makaluensis</t>
+  </si>
+  <si>
+    <t>Brelih</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975 (Male)</t>
+  </si>
+  <si>
+    <t>Lewis3136</t>
+  </si>
+  <si>
+    <t>Lewis1941</t>
+  </si>
+  <si>
+    <t>Palaeopsylla tauberi makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>simplex simplex</t>
+  </si>
+  <si>
+    <t>Ceratophyllus danubianus Rothschild, 1909; Citellophilus simplex domicae Rosicky, 1956; Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
+  </si>
+  <si>
+    <t>Lewis3330</t>
+  </si>
+  <si>
+    <t>Lewis444</t>
+  </si>
+  <si>
+    <t>Citellophilus simplex simplex (Wagner, 1902)</t>
+  </si>
+  <si>
+    <t>male of Ischnopsyllus simplex simplex</t>
+  </si>
+  <si>
+    <t>scintilla scintilla</t>
+  </si>
+  <si>
+    <t>(M. Rothschild)</t>
+  </si>
+  <si>
+    <t>Glauertia scintilla M. Rothschild, 1936; Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
+  </si>
+  <si>
+    <t>Lewis3250</t>
+  </si>
+  <si>
+    <t>Lewis19</t>
+  </si>
+  <si>
+    <t>Acanthopsylla scintilla scintilla (M. Rothschild, 1936)</t>
+  </si>
+  <si>
+    <t>nomen novum</t>
+  </si>
+  <si>
+    <t>nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Lewis3034</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1928</t>
+  </si>
+  <si>
+    <t>Ioff, 1928</t>
+  </si>
+  <si>
+    <t>only later 1930 did Ioff describe</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>agyrtes</t>
+  </si>
+  <si>
+    <t>slovacicus</t>
+  </si>
+  <si>
+    <t>Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>partim</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>orphilus</t>
+  </si>
+  <si>
+    <t>tatricus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus</t>
+  </si>
+  <si>
+    <t>agyrtes agyrtes</t>
+  </si>
+  <si>
+    <t>(Heller)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtoides Wahlgren, 1911; Ctenophthalmus agyrtes hanzaki Rosicky, 1951; Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
+  </si>
+  <si>
+    <t>Lewis3332</t>
+  </si>
+  <si>
+    <t>Lewis538</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes agyrtes (Heller, 1896)</t>
+  </si>
+  <si>
+    <t>Lewis3359</t>
+  </si>
+  <si>
     <t>Oropsylla</t>
   </si>
   <si>
@@ -799,9 +928,15 @@
     <t>mandarina</t>
   </si>
   <si>
+    <t>(Jordan &amp; Rothschild, 1911)</t>
+  </si>
+  <si>
     <t>Oropsylla montana mandarina</t>
   </si>
   <si>
+    <t>Lewis3314</t>
+  </si>
+  <si>
     <t>Archaeopsyllinae</t>
   </si>
   <si>
@@ -811,25 +946,16 @@
     <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
   </si>
   <si>
-    <t>Lewis332</t>
-  </si>
-  <si>
-    <t>Pulex canis Curtis, 1826</t>
+    <t>Lewis517</t>
   </si>
   <si>
     <t>Ctenocephalides canis (Curtis, 1926)</t>
   </si>
   <si>
-    <t>Curtis, 1826</t>
-  </si>
-  <si>
-    <t>junior homonym</t>
-  </si>
-  <si>
     <t>Pulex canis</t>
   </si>
   <si>
-    <t>Lewis330</t>
+    <t>Lewis3178</t>
   </si>
   <si>
     <t>Ceratophyllus hirundinis Chao, 1947</t>
@@ -838,40 +964,28 @@
     <t>Chao, 1947</t>
   </si>
   <si>
+    <t>Lewis3186</t>
+  </si>
+  <si>
     <t>Pulex canis Dugès, 1832</t>
   </si>
   <si>
-    <t>Pulex musculi Bouché, 1835</t>
-  </si>
-  <si>
-    <t>junior homonym of Pulex musculi Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Trichopsylla Jordan &amp; Rothschild, 1920</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1920</t>
-  </si>
-  <si>
-    <t>junior homonym of Trichopsylla Kolenati, 1863</t>
-  </si>
-  <si>
-    <t>Trichopsylla Ewing &amp; Fox, 1943</t>
-  </si>
-  <si>
-    <t>Ewing &amp; Fox, 1943</t>
-  </si>
-  <si>
     <t>Spalacopsylla</t>
   </si>
   <si>
+    <t>junior synonym</t>
+  </si>
+  <si>
     <t>Kolenati</t>
   </si>
   <si>
     <t>Spalacopsylla Kolenati, 1856 (junior synonym)</t>
   </si>
   <si>
-    <t>Lewis380</t>
+    <t>Lewis2744</t>
+  </si>
+  <si>
+    <t>Lewis828</t>
   </si>
   <si>
     <t>Spalacopsylla Kolenati, 1856</t>
@@ -883,37 +997,16 @@
     <t>Kolenati, 1856</t>
   </si>
   <si>
-    <t>junior synonym</t>
-  </si>
-  <si>
-    <t>Doratopsyllinae</t>
-  </si>
-  <si>
-    <t>Ewing</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
-  </si>
-  <si>
-    <t>Lewis381</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Pinto, 1930</t>
-  </si>
-  <si>
-    <t>Adoratopsylla Ewing, 1925</t>
-  </si>
-  <si>
-    <t>Pinto, 1930</t>
-  </si>
-  <si>
     <t>Westwood</t>
   </si>
   <si>
     <t>Ceratopsylla Wagner, 1988??; Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913; Nycteridiphilis K. Dalla Torre, 1914; Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
   </si>
   <si>
-    <t>Lewis109</t>
+    <t>Lewis3160</t>
+  </si>
+  <si>
+    <t>Lewis1234</t>
   </si>
   <si>
     <t>Spalacopsylla Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
@@ -925,160 +1018,13 @@
     <t>Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
   </si>
   <si>
-    <t>Pulex gigas Kirby, 1837 (likely a species of Hystrichopsylla)</t>
-  </si>
-  <si>
-    <t>likely a species of Hystrichopsylla</t>
-  </si>
-  <si>
-    <t>zethi</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (male)</t>
-  </si>
-  <si>
-    <t>Lewis355</t>
-  </si>
-  <si>
-    <t>Pygiopsylla zethi (Rothschild, 1904)</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>tauberi makaluensis</t>
-  </si>
-  <si>
-    <t>Brelih</t>
-  </si>
-  <si>
-    <t>Palaeopsylla makaluensis Brelih, 1975 (Male)</t>
-  </si>
-  <si>
-    <t>Lewis297</t>
-  </si>
-  <si>
-    <t>Palaeopsylla tauberi makaluensis Brelih, 1975</t>
-  </si>
-  <si>
-    <t>simplex simplex</t>
-  </si>
-  <si>
-    <t>Ceratophyllus danubianus Rothschild, 1909; Citellophilus simplex domicae Rosicky, 1956; Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
-  </si>
-  <si>
-    <t>Lewis77</t>
-  </si>
-  <si>
-    <t>Citellophilus simplex simplex (Wagner, 1902)</t>
-  </si>
-  <si>
-    <t>male of Ischnopsyllus simplex simplex</t>
-  </si>
-  <si>
-    <t>scintilla scintilla</t>
-  </si>
-  <si>
-    <t>(M. Rothschild)</t>
-  </si>
-  <si>
-    <t>Glauertia scintilla M. Rothschild, 1936; Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
-  </si>
-  <si>
-    <t>Lewis208</t>
-  </si>
-  <si>
-    <t>Acanthopsylla scintilla scintilla (M. Rothschild, 1936)</t>
-  </si>
-  <si>
-    <t>nomen novum</t>
-  </si>
-  <si>
-    <t>nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
-    <t>Lewis417</t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini Ioff, 1928</t>
-  </si>
-  <si>
-    <t>Ioff, 1928</t>
-  </si>
-  <si>
-    <t>only later 1930 did Ioff describe</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus</t>
-  </si>
-  <si>
-    <t>agyrtes peusianus</t>
-  </si>
-  <si>
-    <t>Rosicky</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
-  </si>
-  <si>
-    <t>Lewis144</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes peusianus Rosicky, 1955</t>
-  </si>
-  <si>
-    <t>agyrtes</t>
-  </si>
-  <si>
-    <t>slovacicus</t>
-  </si>
-  <si>
-    <t>Rosicky, 1951</t>
-  </si>
-  <si>
-    <t>partim</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes slovacicus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
-  </si>
-  <si>
-    <t>orphilus</t>
-  </si>
-  <si>
-    <t>tatricus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus orphilus tatricus</t>
-  </si>
-  <si>
-    <t>agyrtes agyrtes</t>
-  </si>
-  <si>
-    <t>(Heller)</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtoides Wahlgren, 1911; Ctenophthalmus agyrtes hanzaki Rosicky, 1951; Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
-  </si>
-  <si>
-    <t>Lewis145</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes agyrtes (Heller, 1896)</t>
-  </si>
-  <si>
-    <t>Lewis319</t>
+    <t>Lewis3161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1912,8 +1858,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2046,40 +1992,40 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F2">
-        <v>1967</v>
+        <v>1930</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2">
-        <v>2791</v>
+        <v>3002</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
@@ -2097,10 +2043,10 @@
         <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="S2" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="T2" t="s">
         <v>43</v>
@@ -2118,16 +2064,16 @@
         <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC2" t="s">
         <v>43</v>
@@ -2139,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="AF2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG2" t="s">
         <v>43</v>
       </c>
       <c r="AH2" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="AI2" t="s">
         <v>43</v>
@@ -2154,7 +2100,7 @@
         <v>43</v>
       </c>
       <c r="AK2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL2" t="s">
         <v>43</v>
@@ -2163,45 +2109,45 @@
         <v>43</v>
       </c>
       <c r="AN2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="F3">
-        <v>1930</v>
+        <v>1967</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3">
-        <v>2792</v>
+        <v>3003</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="M3" t="s">
         <v>43</v>
@@ -2219,10 +2165,10 @@
         <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="S3" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="T3" t="s">
         <v>43</v>
@@ -2240,16 +2186,16 @@
         <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s">
         <v>43</v>
@@ -2261,13 +2207,13 @@
         <v>43</v>
       </c>
       <c r="AF3" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG3" t="s">
         <v>43</v>
       </c>
       <c r="AH3" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="AI3" t="s">
         <v>43</v>
@@ -2276,7 +2222,7 @@
         <v>43</v>
       </c>
       <c r="AK3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL3" t="s">
         <v>43</v>
@@ -2285,45 +2231,45 @@
         <v>43</v>
       </c>
       <c r="AN3" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F4">
         <v>1895</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4">
-        <v>3038</v>
+        <v>3149</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M4" t="s">
         <v>43</v>
@@ -2341,10 +2287,10 @@
         <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="S4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="T4" t="s">
         <v>43</v>
@@ -2362,16 +2308,16 @@
         <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC4" t="s">
         <v>43</v>
@@ -2383,13 +2329,13 @@
         <v>43</v>
       </c>
       <c r="AF4" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG4" t="s">
         <v>43</v>
       </c>
       <c r="AH4" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="AI4" t="s">
         <v>43</v>
@@ -2398,7 +2344,7 @@
         <v>43</v>
       </c>
       <c r="AK4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL4" t="s">
         <v>43</v>
@@ -2407,45 +2353,45 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F5">
         <v>1925</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5">
-        <v>3039</v>
+        <v>3150</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="K5" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
@@ -2463,10 +2409,10 @@
         <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="S5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="T5" t="s">
         <v>43</v>
@@ -2484,16 +2430,16 @@
         <v>43</v>
       </c>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="s">
         <v>43</v>
@@ -2505,13 +2451,13 @@
         <v>43</v>
       </c>
       <c r="AF5" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
         <v>43</v>
       </c>
       <c r="AH5" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="AI5" t="s">
         <v>43</v>
@@ -2520,7 +2466,7 @@
         <v>43</v>
       </c>
       <c r="AK5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s">
         <v>43</v>
@@ -2529,45 +2475,45 @@
         <v>43</v>
       </c>
       <c r="AN5" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F6">
-        <v>1967</v>
+        <v>1930</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6">
-        <v>3172</v>
+        <v>3236</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
@@ -2585,10 +2531,10 @@
         <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="T6" t="s">
         <v>43</v>
@@ -2606,16 +2552,16 @@
         <v>43</v>
       </c>
       <c r="Y6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC6" t="s">
         <v>43</v>
@@ -2627,13 +2573,13 @@
         <v>43</v>
       </c>
       <c r="AF6" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG6" t="s">
         <v>43</v>
       </c>
       <c r="AH6" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AI6" t="s">
         <v>43</v>
@@ -2642,7 +2588,7 @@
         <v>43</v>
       </c>
       <c r="AK6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s">
         <v>43</v>
@@ -2651,45 +2597,45 @@
         <v>43</v>
       </c>
       <c r="AN6" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="F7">
-        <v>1930</v>
+        <v>1967</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7">
-        <v>3173</v>
+        <v>3237</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="M7" t="s">
         <v>43</v>
@@ -2707,10 +2653,10 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="S7" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="T7" t="s">
         <v>43</v>
@@ -2728,16 +2674,16 @@
         <v>43</v>
       </c>
       <c r="Y7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC7" t="s">
         <v>43</v>
@@ -2749,13 +2695,13 @@
         <v>43</v>
       </c>
       <c r="AF7" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG7" t="s">
         <v>43</v>
       </c>
       <c r="AH7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AI7" t="s">
         <v>43</v>
@@ -2764,7 +2710,7 @@
         <v>43</v>
       </c>
       <c r="AK7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL7" t="s">
         <v>43</v>
@@ -2773,45 +2719,45 @@
         <v>43</v>
       </c>
       <c r="AN7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F8">
         <v>1895</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8">
-        <v>3247</v>
+        <v>3282</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
@@ -2829,10 +2775,10 @@
         <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="S8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="T8" t="s">
         <v>43</v>
@@ -2850,16 +2796,16 @@
         <v>43</v>
       </c>
       <c r="Y8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC8" t="s">
         <v>43</v>
@@ -2871,13 +2817,13 @@
         <v>43</v>
       </c>
       <c r="AF8" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG8" t="s">
         <v>43</v>
       </c>
       <c r="AH8" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AI8" t="s">
         <v>43</v>
@@ -2886,7 +2832,7 @@
         <v>43</v>
       </c>
       <c r="AK8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL8" t="s">
         <v>43</v>
@@ -2895,45 +2841,45 @@
         <v>43</v>
       </c>
       <c r="AN8" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <v>1925</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9">
-        <v>3248</v>
+        <v>3283</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="K9" t="s">
         <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M9" t="s">
         <v>43</v>
@@ -2951,10 +2897,10 @@
         <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="S9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="T9" t="s">
         <v>43</v>
@@ -2972,16 +2918,16 @@
         <v>43</v>
       </c>
       <c r="Y9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC9" t="s">
         <v>43</v>
@@ -2993,13 +2939,13 @@
         <v>43</v>
       </c>
       <c r="AF9" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AG9" t="s">
         <v>43</v>
       </c>
       <c r="AH9" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AI9" t="s">
         <v>43</v>
@@ -3008,7 +2954,7 @@
         <v>43</v>
       </c>
       <c r="AK9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL9" t="s">
         <v>43</v>
@@ -3017,7 +2963,7 @@
         <v>43</v>
       </c>
       <c r="AN9" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
@@ -3031,31 +2977,31 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F10">
-        <v>1916</v>
+        <v>1895</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2814</v>
+        <v>2949</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="K10" t="s">
         <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
         <v>43</v>
@@ -3073,10 +3019,10 @@
         <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S10" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="T10" t="s">
         <v>43</v>
@@ -3094,22 +3040,22 @@
         <v>43</v>
       </c>
       <c r="Y10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC10" t="s">
         <v>43</v>
       </c>
       <c r="AD10" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="AE10" t="s">
         <v>43</v>
@@ -3121,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AI10" t="s">
         <v>43</v>
@@ -3130,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="AK10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL10" t="s">
         <v>43</v>
@@ -3139,45 +3085,45 @@
         <v>43</v>
       </c>
       <c r="AN10" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F11">
-        <v>1895</v>
+        <v>1932</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
       </c>
       <c r="I11">
-        <v>2815</v>
+        <v>3312</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="K11" t="s">
         <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
@@ -3195,10 +3141,10 @@
         <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="S11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="T11" t="s">
         <v>43</v>
@@ -3216,34 +3162,34 @@
         <v>43</v>
       </c>
       <c r="Y11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC11" t="s">
         <v>43</v>
       </c>
       <c r="AD11" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="AE11" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="AF11" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="AG11" t="s">
         <v>43</v>
       </c>
       <c r="AH11" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="AI11" t="s">
         <v>43</v>
@@ -3252,7 +3198,7 @@
         <v>43</v>
       </c>
       <c r="AK11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s">
         <v>43</v>
@@ -3261,45 +3207,45 @@
         <v>43</v>
       </c>
       <c r="AN11" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F12">
-        <v>1932</v>
+        <v>1826</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
       <c r="I12">
-        <v>3309</v>
+        <v>3178</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="K12" t="s">
         <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -3317,10 +3263,10 @@
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="S12" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
         <v>43</v>
@@ -3338,34 +3284,34 @@
         <v>43</v>
       </c>
       <c r="Y12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC12" t="s">
         <v>43</v>
       </c>
       <c r="AD12" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="AE12" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="AF12" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="s">
         <v>43</v>
       </c>
       <c r="AH12" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="AI12" t="s">
         <v>43</v>
@@ -3374,7 +3320,7 @@
         <v>43</v>
       </c>
       <c r="AK12" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="AL12" t="s">
         <v>43</v>
@@ -3383,45 +3329,45 @@
         <v>43</v>
       </c>
       <c r="AN12" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="F13">
-        <v>1856</v>
+        <v>1878</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="H13" t="s">
         <v>46</v>
       </c>
       <c r="I13">
-        <v>3310</v>
+        <v>3388</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
         <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="M13" t="s">
         <v>43</v>
@@ -3439,111 +3385,111 @@
         <v>43</v>
       </c>
       <c r="R13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S13" t="s">
+        <v>215</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN13" t="s">
         <v>194</v>
-      </c>
-      <c r="S13" t="s">
-        <v>135</v>
-      </c>
-      <c r="T13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13" t="s">
-        <v>43</v>
-      </c>
-      <c r="X13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="F14">
-        <v>1826</v>
+        <v>1896</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
       </c>
       <c r="I14">
-        <v>3222</v>
+        <v>3332</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
@@ -3561,10 +3507,10 @@
         <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="T14" t="s">
         <v>43</v>
@@ -3582,34 +3528,34 @@
         <v>43</v>
       </c>
       <c r="Y14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC14" t="s">
         <v>43</v>
       </c>
       <c r="AD14" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="AE14" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="AF14" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="AG14" t="s">
         <v>43</v>
       </c>
       <c r="AH14" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AI14" t="s">
         <v>43</v>
@@ -3618,54 +3564,54 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s">
-        <v>267</v>
+        <v>102</v>
       </c>
       <c r="AL14" t="s">
         <v>43</v>
       </c>
       <c r="AM14" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="AN14" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="F15">
-        <v>1866</v>
+        <v>1896</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
       </c>
       <c r="I15">
-        <v>3256</v>
+        <v>3359</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="K15" t="s">
         <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="M15" t="s">
         <v>43</v>
@@ -3683,10 +3629,10 @@
         <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="S15" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="T15" t="s">
         <v>43</v>
@@ -3704,34 +3650,34 @@
         <v>43</v>
       </c>
       <c r="Y15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC15" t="s">
         <v>43</v>
       </c>
       <c r="AD15" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="AE15" t="s">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AF15" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="AG15" t="s">
         <v>43</v>
       </c>
       <c r="AH15" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="AI15" t="s">
         <v>43</v>
@@ -3740,16 +3686,16 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL15" t="s">
         <v>43</v>
       </c>
       <c r="AM15" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="AN15" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
@@ -3760,34 +3706,34 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="F16">
-        <v>1878</v>
+        <v>1895</v>
       </c>
       <c r="G16" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
       </c>
       <c r="I16">
-        <v>3384</v>
+        <v>3315</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="K16" t="s">
         <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -3805,10 +3751,10 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="S16" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="T16" t="s">
         <v>43</v>
@@ -3826,22 +3772,22 @@
         <v>43</v>
       </c>
       <c r="Y16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC16" t="s">
         <v>43</v>
       </c>
       <c r="AD16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AE16" t="s">
         <v>43</v>
@@ -3853,7 +3799,7 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AI16" t="s">
         <v>43</v>
@@ -3862,7 +3808,7 @@
         <v>43</v>
       </c>
       <c r="AK16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL16" t="s">
         <v>43</v>
@@ -3871,45 +3817,45 @@
         <v>43</v>
       </c>
       <c r="AN16" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="F17">
-        <v>1955</v>
+        <v>1936</v>
       </c>
       <c r="G17" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="H17" t="s">
         <v>46</v>
       </c>
       <c r="I17">
-        <v>3078</v>
+        <v>3250</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="K17" t="s">
         <v>43</v>
       </c>
       <c r="L17" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="M17" t="s">
         <v>43</v>
@@ -3927,10 +3873,10 @@
         <v>43</v>
       </c>
       <c r="R17" t="s">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="S17" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="T17" t="s">
         <v>43</v>
@@ -3948,34 +3894,34 @@
         <v>43</v>
       </c>
       <c r="Y17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC17" t="s">
         <v>43</v>
       </c>
       <c r="AD17" t="s">
-        <v>336</v>
+        <v>43</v>
       </c>
       <c r="AE17" t="s">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="AF17" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="s">
         <v>43</v>
       </c>
       <c r="AH17" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="AI17" t="s">
         <v>43</v>
@@ -3984,54 +3930,54 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL17" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="AM17" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="AN17" t="s">
-        <v>340</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="F18">
-        <v>1896</v>
+        <v>1932</v>
       </c>
       <c r="G18" t="s">
-        <v>347</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18">
-        <v>3329</v>
+        <v>3212</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
         <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="M18" t="s">
         <v>43</v>
@@ -4049,10 +3995,10 @@
         <v>43</v>
       </c>
       <c r="R18" t="s">
-        <v>334</v>
+        <v>171</v>
       </c>
       <c r="S18" t="s">
-        <v>349</v>
+        <v>123</v>
       </c>
       <c r="T18" t="s">
         <v>43</v>
@@ -4070,34 +4016,34 @@
         <v>43</v>
       </c>
       <c r="Y18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC18" t="s">
         <v>43</v>
       </c>
       <c r="AD18" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="AE18" t="s">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="AF18" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="AG18" t="s">
         <v>43</v>
       </c>
       <c r="AH18" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="AI18" t="s">
         <v>43</v>
@@ -4106,54 +4052,54 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL18" t="s">
         <v>43</v>
       </c>
       <c r="AM18" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="AN18" t="s">
-        <v>340</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="E19" t="s">
-        <v>331</v>
+        <v>125</v>
       </c>
       <c r="F19">
-        <v>1955</v>
+        <v>1902</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19">
-        <v>3260</v>
+        <v>3330</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="K19" t="s">
         <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="M19" t="s">
         <v>43</v>
@@ -4171,10 +4117,10 @@
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="S19" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="T19" t="s">
         <v>43</v>
@@ -4192,34 +4138,34 @@
         <v>43</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC19" t="s">
         <v>43</v>
       </c>
       <c r="AD19" t="s">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="AE19" t="s">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="AF19" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="AG19" t="s">
         <v>43</v>
       </c>
       <c r="AH19" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="AI19" t="s">
         <v>43</v>
@@ -4228,54 +4174,54 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL19" t="s">
         <v>43</v>
       </c>
       <c r="AM19" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="AN19" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>1896</v>
+        <v>1944</v>
       </c>
       <c r="G20" t="s">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
       </c>
       <c r="I20">
-        <v>3356</v>
+        <v>3161</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="K20" t="s">
         <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>348</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
@@ -4293,10 +4239,10 @@
         <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>341</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>349</v>
+        <v>48</v>
       </c>
       <c r="T20" t="s">
         <v>43</v>
@@ -4314,34 +4260,34 @@
         <v>43</v>
       </c>
       <c r="Y20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC20" t="s">
         <v>43</v>
       </c>
       <c r="AD20" t="s">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="AE20" t="s">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="AF20" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="s">
         <v>43</v>
       </c>
       <c r="AH20" t="s">
-        <v>338</v>
+        <v>53</v>
       </c>
       <c r="AI20" t="s">
         <v>43</v>
@@ -4350,54 +4296,54 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL20" t="s">
         <v>43</v>
       </c>
       <c r="AM20" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="AN20" t="s">
-        <v>344</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F21">
-        <v>1916</v>
+        <v>1932</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
       </c>
       <c r="I21">
-        <v>3180</v>
+        <v>2924</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s">
         <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s">
         <v>43</v>
@@ -4415,10 +4361,10 @@
         <v>43</v>
       </c>
       <c r="R21" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="S21" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="T21" t="s">
         <v>43</v>
@@ -4436,22 +4382,22 @@
         <v>43</v>
       </c>
       <c r="Y21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC21" t="s">
         <v>43</v>
       </c>
       <c r="AD21" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="AE21" t="s">
         <v>43</v>
@@ -4463,7 +4409,7 @@
         <v>43</v>
       </c>
       <c r="AH21" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="AI21" t="s">
         <v>43</v>
@@ -4472,7 +4418,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s">
         <v>43</v>
@@ -4481,7 +4427,7 @@
         <v>43</v>
       </c>
       <c r="AN21" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
@@ -4492,34 +4438,34 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F22">
-        <v>1895</v>
+        <v>1916</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
       </c>
       <c r="I22">
-        <v>3297</v>
+        <v>3314</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="K22" t="s">
         <v>43</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M22" t="s">
         <v>43</v>
@@ -4537,10 +4483,10 @@
         <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="S22" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="T22" t="s">
         <v>43</v>
@@ -4558,34 +4504,34 @@
         <v>43</v>
       </c>
       <c r="Y22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC22" t="s">
         <v>43</v>
       </c>
       <c r="AD22" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AE22" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="AF22" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s">
         <v>43</v>
       </c>
       <c r="AH22" t="s">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="AI22" t="s">
         <v>43</v>
@@ -4594,7 +4540,7 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL22" t="s">
         <v>43</v>
@@ -4603,45 +4549,45 @@
         <v>43</v>
       </c>
       <c r="AN22" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="F23">
-        <v>1922</v>
+        <v>1975</v>
       </c>
       <c r="G23" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23">
-        <v>3152</v>
+        <v>3136</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s">
         <v>43</v>
@@ -4659,10 +4605,10 @@
         <v>43</v>
       </c>
       <c r="R23" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="S23" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="T23" t="s">
         <v>43</v>
@@ -4680,34 +4626,34 @@
         <v>43</v>
       </c>
       <c r="Y23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC23" t="s">
         <v>43</v>
       </c>
       <c r="AD23" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="AE23" t="s">
         <v>43</v>
       </c>
       <c r="AF23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="s">
         <v>43</v>
       </c>
       <c r="AH23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AI23" t="s">
         <v>43</v>
@@ -4716,54 +4662,54 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL23" t="s">
         <v>43</v>
       </c>
       <c r="AM23" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="AN23" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="F24">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="G24" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>3265</v>
+        <v>2979</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s">
         <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s">
         <v>43</v>
@@ -4781,10 +4727,10 @@
         <v>43</v>
       </c>
       <c r="R24" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="S24" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="T24" t="s">
         <v>43</v>
@@ -4802,34 +4748,34 @@
         <v>43</v>
       </c>
       <c r="Y24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC24" t="s">
         <v>43</v>
       </c>
       <c r="AD24" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="AE24" t="s">
         <v>43</v>
       </c>
       <c r="AF24" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="s">
         <v>43</v>
       </c>
       <c r="AH24" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="AI24" t="s">
         <v>43</v>
@@ -4838,54 +4784,54 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL24" t="s">
-        <v>323</v>
+        <v>43</v>
       </c>
       <c r="AM24" t="s">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="AN24" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F25">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
       </c>
       <c r="I25">
-        <v>3215</v>
+        <v>3186</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="K25" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="M25" t="s">
         <v>43</v>
@@ -4903,10 +4849,10 @@
         <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="S25" t="s">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="T25" t="s">
         <v>43</v>
@@ -4924,22 +4870,22 @@
         <v>43</v>
       </c>
       <c r="Y25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC25" t="s">
         <v>43</v>
       </c>
       <c r="AD25" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="AE25" t="s">
         <v>43</v>
@@ -4951,7 +4897,7 @@
         <v>43</v>
       </c>
       <c r="AH25" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="AI25" t="s">
         <v>43</v>
@@ -4960,7 +4906,7 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s">
         <v>43</v>
@@ -4969,45 +4915,45 @@
         <v>43</v>
       </c>
       <c r="AN25" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26">
-        <v>1856</v>
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="H26" t="s">
         <v>46</v>
       </c>
       <c r="I26">
-        <v>3216</v>
+        <v>2780</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
         <v>43</v>
       </c>
       <c r="L26" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="M26" t="s">
         <v>43</v>
@@ -5025,10 +4971,10 @@
         <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="S26" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
         <v>43</v>
@@ -5046,22 +4992,22 @@
         <v>43</v>
       </c>
       <c r="Y26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC26" t="s">
         <v>43</v>
       </c>
       <c r="AD26" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AE26" t="s">
         <v>43</v>
@@ -5073,7 +5019,7 @@
         <v>43</v>
       </c>
       <c r="AH26" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AI26" t="s">
         <v>43</v>
@@ -5082,54 +5028,54 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL26" t="s">
         <v>43</v>
       </c>
       <c r="AM26" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F27">
-        <v>1898</v>
+        <v>1811</v>
       </c>
       <c r="G27" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
       </c>
       <c r="I27">
-        <v>3197</v>
+        <v>2893</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="K27" t="s">
         <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="M27" t="s">
         <v>43</v>
@@ -5147,10 +5093,10 @@
         <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="S27" t="s">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="T27" t="s">
         <v>43</v>
@@ -5168,22 +5114,22 @@
         <v>43</v>
       </c>
       <c r="Y27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC27" t="s">
         <v>43</v>
       </c>
       <c r="AD27" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="AE27" t="s">
         <v>43</v>
@@ -5195,7 +5141,7 @@
         <v>43</v>
       </c>
       <c r="AH27" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="AI27" t="s">
         <v>43</v>
@@ -5204,54 +5150,54 @@
         <v>43</v>
       </c>
       <c r="AK27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL27" t="s">
         <v>43</v>
       </c>
       <c r="AM27" t="s">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="AN27" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F28">
-        <v>1902</v>
+        <v>1856</v>
       </c>
       <c r="G28" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
         <v>46</v>
       </c>
       <c r="I28">
-        <v>3326</v>
+        <v>3369</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
         <v>43</v>
       </c>
       <c r="L28" t="s">
-        <v>315</v>
+        <v>97</v>
       </c>
       <c r="M28" t="s">
         <v>43</v>
@@ -5269,10 +5215,10 @@
         <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="S28" t="s">
-        <v>316</v>
+        <v>99</v>
       </c>
       <c r="T28" t="s">
         <v>43</v>
@@ -5290,22 +5236,22 @@
         <v>43</v>
       </c>
       <c r="Y28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC28" t="s">
         <v>43</v>
       </c>
       <c r="AD28" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="AE28" t="s">
         <v>43</v>
@@ -5317,7 +5263,7 @@
         <v>43</v>
       </c>
       <c r="AH28" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="AI28" t="s">
         <v>43</v>
@@ -5326,54 +5272,54 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL28" t="s">
         <v>43</v>
       </c>
       <c r="AM28" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="AN28" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F29">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="H29" t="s">
         <v>46</v>
       </c>
       <c r="I29">
-        <v>3161</v>
+        <v>2987</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
         <v>43</v>
       </c>
       <c r="L29" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s">
         <v>43</v>
@@ -5391,10 +5337,10 @@
         <v>43</v>
       </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="S29" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="T29" t="s">
         <v>43</v>
@@ -5412,34 +5358,34 @@
         <v>43</v>
       </c>
       <c r="Y29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC29" t="s">
         <v>43</v>
       </c>
       <c r="AD29" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="AE29" t="s">
         <v>43</v>
       </c>
       <c r="AF29" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG29" t="s">
         <v>43</v>
       </c>
       <c r="AH29" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="AI29" t="s">
         <v>43</v>
@@ -5448,54 +5394,54 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL29" t="s">
         <v>43</v>
       </c>
       <c r="AM29" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>1932</v>
+        <v>1946</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
         <v>46</v>
       </c>
       <c r="I30">
-        <v>2937</v>
+        <v>2996</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s">
         <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="M30" t="s">
         <v>43</v>
@@ -5513,10 +5459,10 @@
         <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="S30" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s">
         <v>43</v>
@@ -5534,22 +5480,22 @@
         <v>43</v>
       </c>
       <c r="Y30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC30" t="s">
         <v>43</v>
       </c>
       <c r="AD30" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="AE30" t="s">
         <v>43</v>
@@ -5561,7 +5507,7 @@
         <v>43</v>
       </c>
       <c r="AH30" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="AI30" t="s">
         <v>43</v>
@@ -5570,7 +5516,7 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL30" t="s">
         <v>43</v>
@@ -5579,45 +5525,45 @@
         <v>43</v>
       </c>
       <c r="AN30" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="F31">
         <v>1856</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
       </c>
       <c r="I31">
-        <v>2938</v>
+        <v>2744</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
         <v>43</v>
       </c>
       <c r="L31" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s">
         <v>43</v>
@@ -5635,10 +5581,10 @@
         <v>43</v>
       </c>
       <c r="R31" t="s">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="S31" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="T31" t="s">
         <v>43</v>
@@ -5656,34 +5602,34 @@
         <v>43</v>
       </c>
       <c r="Y31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC31" t="s">
         <v>43</v>
       </c>
       <c r="AD31" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AE31" t="s">
         <v>43</v>
       </c>
       <c r="AF31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG31" t="s">
         <v>43</v>
       </c>
       <c r="AH31" t="s">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="AI31" t="s">
         <v>43</v>
@@ -5692,7 +5638,7 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="AL31" t="s">
         <v>43</v>
@@ -5701,45 +5647,45 @@
         <v>43</v>
       </c>
       <c r="AN31" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="F32">
-        <v>1895</v>
+        <v>1833</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="H32" t="s">
         <v>46</v>
       </c>
       <c r="I32">
-        <v>3181</v>
+        <v>3160</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
         <v>43</v>
       </c>
       <c r="L32" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s">
         <v>43</v>
@@ -5757,10 +5703,10 @@
         <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="S32" t="s">
-        <v>118</v>
+        <v>330</v>
       </c>
       <c r="T32" t="s">
         <v>43</v>
@@ -5778,34 +5724,34 @@
         <v>43</v>
       </c>
       <c r="Y32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC32" t="s">
         <v>43</v>
       </c>
       <c r="AD32" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="AE32" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="AF32" t="s">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="AG32" t="s">
         <v>43</v>
       </c>
       <c r="AH32" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="AI32" t="s">
         <v>43</v>
@@ -5814,7 +5760,7 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="AL32" t="s">
         <v>43</v>
@@ -5823,7 +5769,7 @@
         <v>43</v>
       </c>
       <c r="AN32" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
@@ -5834,34 +5780,34 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F33">
-        <v>1916</v>
+        <v>1905</v>
       </c>
       <c r="G33" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
         <v>46</v>
       </c>
       <c r="I33">
-        <v>3296</v>
+        <v>3241</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="K33" t="s">
         <v>43</v>
       </c>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="M33" t="s">
         <v>43</v>
@@ -5879,10 +5825,10 @@
         <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="S33" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s">
         <v>43</v>
@@ -5900,34 +5846,34 @@
         <v>43</v>
       </c>
       <c r="Y33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC33" t="s">
         <v>43</v>
       </c>
       <c r="AD33" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="AF33" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="AG33" t="s">
         <v>43</v>
       </c>
       <c r="AH33" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="AI33" t="s">
         <v>43</v>
@@ -5936,7 +5882,7 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AL33" t="s">
         <v>43</v>
@@ -5945,45 +5891,45 @@
         <v>43</v>
       </c>
       <c r="AN33" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="F34">
-        <v>1976</v>
+        <v>1936</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H34" t="s">
         <v>46</v>
       </c>
       <c r="I34">
-        <v>2947</v>
+        <v>3155</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="K34" t="s">
         <v>43</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s">
         <v>43</v>
@@ -6001,10 +5947,10 @@
         <v>43</v>
       </c>
       <c r="R34" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="S34" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="T34" t="s">
         <v>43</v>
@@ -6022,34 +5968,34 @@
         <v>43</v>
       </c>
       <c r="Y34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC34" t="s">
         <v>43</v>
       </c>
       <c r="AD34" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="AE34" t="s">
         <v>43</v>
       </c>
       <c r="AF34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG34" t="s">
         <v>43</v>
       </c>
       <c r="AH34" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AI34" t="s">
         <v>43</v>
@@ -6058,54 +6004,54 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s">
         <v>43</v>
       </c>
       <c r="AM34" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AN34" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>86</v>
       </c>
       <c r="F35">
-        <v>1975</v>
+        <v>1936</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="H35" t="s">
         <v>46</v>
       </c>
       <c r="I35">
-        <v>3130</v>
+        <v>3285</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="K35" t="s">
         <v>43</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="M35" t="s">
         <v>43</v>
@@ -6123,10 +6069,10 @@
         <v>43</v>
       </c>
       <c r="R35" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="S35" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="T35" t="s">
         <v>43</v>
@@ -6144,34 +6090,34 @@
         <v>43</v>
       </c>
       <c r="Y35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC35" t="s">
         <v>43</v>
       </c>
       <c r="AD35" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="AE35" t="s">
         <v>43</v>
       </c>
       <c r="AF35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG35" t="s">
         <v>43</v>
       </c>
       <c r="AH35" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AI35" t="s">
         <v>43</v>
@@ -6180,16 +6126,16 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s">
         <v>43</v>
       </c>
       <c r="AM35" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="AN35" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
@@ -6209,25 +6155,25 @@
         <v>86</v>
       </c>
       <c r="F36">
-        <v>1947</v>
+        <v>1930</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
         <v>46</v>
       </c>
       <c r="I36">
-        <v>1229</v>
+        <v>3034</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s">
         <v>43</v>
       </c>
       <c r="L36" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="M36" t="s">
         <v>43</v>
@@ -6245,10 +6191,10 @@
         <v>43</v>
       </c>
       <c r="R36" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="S36" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="T36" t="s">
         <v>43</v>
@@ -6266,16 +6212,16 @@
         <v>43</v>
       </c>
       <c r="Y36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC36" t="s">
         <v>43</v>
@@ -6293,7 +6239,7 @@
         <v>43</v>
       </c>
       <c r="AH36" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="AI36" t="s">
         <v>43</v>
@@ -6302,2461 +6248,21 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="AL36" t="s">
         <v>43</v>
       </c>
       <c r="AM36" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="AN36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37">
-        <v>1937</v>
-      </c>
-      <c r="G37" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37">
-        <v>2965</v>
-      </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" t="s">
-        <v>138</v>
-      </c>
-      <c r="M37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N37" t="s">
-        <v>43</v>
-      </c>
-      <c r="O37" t="s">
-        <v>43</v>
-      </c>
-      <c r="P37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>43</v>
-      </c>
-      <c r="R37" t="s">
-        <v>137</v>
-      </c>
-      <c r="S37" t="s">
-        <v>139</v>
-      </c>
-      <c r="T37" t="s">
-        <v>43</v>
-      </c>
-      <c r="U37" t="s">
-        <v>43</v>
-      </c>
-      <c r="V37" t="s">
-        <v>43</v>
-      </c>
-      <c r="W37" t="s">
-        <v>43</v>
-      </c>
-      <c r="X37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38">
-        <v>1926</v>
-      </c>
-      <c r="G38" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38">
-        <v>2973</v>
-      </c>
-      <c r="J38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" t="s">
-        <v>263</v>
-      </c>
-      <c r="M38" t="s">
-        <v>43</v>
-      </c>
-      <c r="N38" t="s">
-        <v>43</v>
-      </c>
-      <c r="O38" t="s">
-        <v>43</v>
-      </c>
-      <c r="P38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>43</v>
-      </c>
-      <c r="R38" t="s">
-        <v>264</v>
-      </c>
-      <c r="S38" t="s">
-        <v>265</v>
-      </c>
-      <c r="T38" t="s">
-        <v>43</v>
-      </c>
-      <c r="U38" t="s">
-        <v>43</v>
-      </c>
-      <c r="V38" t="s">
-        <v>43</v>
-      </c>
-      <c r="W38" t="s">
-        <v>43</v>
-      </c>
-      <c r="X38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>260</v>
-      </c>
-      <c r="C39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39">
-        <v>1926</v>
-      </c>
-      <c r="G39" t="s">
-        <v>262</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39">
-        <v>3223</v>
-      </c>
-      <c r="J39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" t="s">
-        <v>263</v>
-      </c>
-      <c r="M39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N39" t="s">
-        <v>43</v>
-      </c>
-      <c r="O39" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>43</v>
-      </c>
-      <c r="R39" t="s">
-        <v>272</v>
-      </c>
-      <c r="S39" t="s">
-        <v>265</v>
-      </c>
-      <c r="T39" t="s">
-        <v>43</v>
-      </c>
-      <c r="U39" t="s">
-        <v>43</v>
-      </c>
-      <c r="V39" t="s">
-        <v>43</v>
-      </c>
-      <c r="W39" t="s">
-        <v>43</v>
-      </c>
-      <c r="X39" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40">
-        <v>1902</v>
-      </c>
-      <c r="G40" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40">
-        <v>3214</v>
-      </c>
-      <c r="J40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" t="s">
-        <v>171</v>
-      </c>
-      <c r="M40" t="s">
-        <v>43</v>
-      </c>
-      <c r="N40" t="s">
-        <v>43</v>
-      </c>
-      <c r="O40" t="s">
-        <v>43</v>
-      </c>
-      <c r="P40" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>43</v>
-      </c>
-      <c r="R40" t="s">
-        <v>172</v>
-      </c>
-      <c r="S40" t="s">
-        <v>173</v>
-      </c>
-      <c r="T40" t="s">
-        <v>43</v>
-      </c>
-      <c r="U40" t="s">
-        <v>43</v>
-      </c>
-      <c r="V40" t="s">
-        <v>43</v>
-      </c>
-      <c r="W40" t="s">
-        <v>43</v>
-      </c>
-      <c r="X40" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41">
-        <v>1837</v>
-      </c>
-      <c r="G41" t="s">
-        <v>301</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41">
-        <v>337</v>
-      </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" t="s">
-        <v>43</v>
-      </c>
-      <c r="N41" t="s">
-        <v>43</v>
-      </c>
-      <c r="O41" t="s">
-        <v>43</v>
-      </c>
-      <c r="P41" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" t="s">
-        <v>172</v>
-      </c>
-      <c r="S41" t="s">
-        <v>43</v>
-      </c>
-      <c r="T41" t="s">
-        <v>43</v>
-      </c>
-      <c r="U41" t="s">
-        <v>43</v>
-      </c>
-      <c r="V41" t="s">
-        <v>43</v>
-      </c>
-      <c r="W41" t="s">
-        <v>43</v>
-      </c>
-      <c r="X41" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42">
-        <v>1811</v>
-      </c>
-      <c r="G42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42">
-        <v>2982</v>
-      </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" t="s">
-        <v>147</v>
-      </c>
-      <c r="M42" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" t="s">
-        <v>43</v>
-      </c>
-      <c r="O42" t="s">
-        <v>43</v>
-      </c>
-      <c r="P42" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>43</v>
-      </c>
-      <c r="R42" t="s">
-        <v>148</v>
-      </c>
-      <c r="S42" t="s">
-        <v>149</v>
-      </c>
-      <c r="T42" t="s">
-        <v>43</v>
-      </c>
-      <c r="U42" t="s">
-        <v>43</v>
-      </c>
-      <c r="V42" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42" t="s">
-        <v>43</v>
-      </c>
-      <c r="X42" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43">
-        <v>1811</v>
-      </c>
-      <c r="G43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43">
-        <v>3227</v>
-      </c>
-      <c r="J43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K43" t="s">
-        <v>43</v>
-      </c>
-      <c r="L43" t="s">
-        <v>147</v>
-      </c>
-      <c r="M43" t="s">
-        <v>43</v>
-      </c>
-      <c r="N43" t="s">
-        <v>43</v>
-      </c>
-      <c r="O43" t="s">
-        <v>43</v>
-      </c>
-      <c r="P43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>43</v>
-      </c>
-      <c r="R43" t="s">
-        <v>273</v>
-      </c>
-      <c r="S43" t="s">
-        <v>149</v>
-      </c>
-      <c r="T43" t="s">
-        <v>43</v>
-      </c>
-      <c r="U43" t="s">
-        <v>43</v>
-      </c>
-      <c r="V43" t="s">
-        <v>43</v>
-      </c>
-      <c r="W43" t="s">
-        <v>43</v>
-      </c>
-      <c r="X43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44">
-        <v>1856</v>
-      </c>
-      <c r="G44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44">
-        <v>3348</v>
-      </c>
-      <c r="J44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" t="s">
-        <v>134</v>
-      </c>
-      <c r="M44" t="s">
-        <v>43</v>
-      </c>
-      <c r="N44" t="s">
-        <v>43</v>
-      </c>
-      <c r="O44" t="s">
-        <v>43</v>
-      </c>
-      <c r="P44" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" t="s">
-        <v>200</v>
-      </c>
-      <c r="S44" t="s">
-        <v>135</v>
-      </c>
-      <c r="T44" t="s">
-        <v>43</v>
-      </c>
-      <c r="U44" t="s">
-        <v>43</v>
-      </c>
-      <c r="V44" t="s">
-        <v>43</v>
-      </c>
-      <c r="W44" t="s">
-        <v>43</v>
-      </c>
-      <c r="X44" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45">
-        <v>1856</v>
-      </c>
-      <c r="G45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45">
-        <v>3365</v>
-      </c>
-      <c r="J45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45" t="s">
-        <v>134</v>
-      </c>
-      <c r="M45" t="s">
-        <v>43</v>
-      </c>
-      <c r="N45" t="s">
-        <v>43</v>
-      </c>
-      <c r="O45" t="s">
-        <v>43</v>
-      </c>
-      <c r="P45" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R45" t="s">
-        <v>204</v>
-      </c>
-      <c r="S45" t="s">
-        <v>135</v>
-      </c>
-      <c r="T45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X45" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F46">
-        <v>1922</v>
-      </c>
-      <c r="G46" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46">
-        <v>2987</v>
-      </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" t="s">
-        <v>241</v>
-      </c>
-      <c r="M46" t="s">
-        <v>43</v>
-      </c>
-      <c r="N46" t="s">
-        <v>43</v>
-      </c>
-      <c r="O46" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>43</v>
-      </c>
-      <c r="R46" t="s">
-        <v>242</v>
-      </c>
-      <c r="S46" t="s">
-        <v>243</v>
-      </c>
-      <c r="T46" t="s">
-        <v>43</v>
-      </c>
-      <c r="U46" t="s">
-        <v>43</v>
-      </c>
-      <c r="V46" t="s">
-        <v>43</v>
-      </c>
-      <c r="W46" t="s">
-        <v>43</v>
-      </c>
-      <c r="X46" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47">
-        <v>1904</v>
-      </c>
-      <c r="G47" t="s">
-        <v>304</v>
-      </c>
-      <c r="H47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47">
-        <v>2988</v>
-      </c>
-      <c r="J47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" t="s">
-        <v>305</v>
-      </c>
-      <c r="M47" t="s">
-        <v>43</v>
-      </c>
-      <c r="N47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O47" t="s">
-        <v>43</v>
-      </c>
-      <c r="P47" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>43</v>
-      </c>
-      <c r="R47" t="s">
-        <v>242</v>
-      </c>
-      <c r="S47" t="s">
-        <v>306</v>
-      </c>
-      <c r="T47" t="s">
-        <v>43</v>
-      </c>
-      <c r="U47" t="s">
-        <v>43</v>
-      </c>
-      <c r="V47" t="s">
-        <v>43</v>
-      </c>
-      <c r="W47" t="s">
-        <v>43</v>
-      </c>
-      <c r="X47" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48">
-        <v>1946</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48">
-        <v>2998</v>
-      </c>
-      <c r="J48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" t="s">
-        <v>153</v>
-      </c>
-      <c r="M48" t="s">
-        <v>43</v>
-      </c>
-      <c r="N48" t="s">
-        <v>43</v>
-      </c>
-      <c r="O48" t="s">
-        <v>43</v>
-      </c>
-      <c r="P48" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>43</v>
-      </c>
-      <c r="R48" t="s">
-        <v>65</v>
-      </c>
-      <c r="S48" t="s">
-        <v>66</v>
-      </c>
-      <c r="T48" t="s">
-        <v>43</v>
-      </c>
-      <c r="U48" t="s">
-        <v>43</v>
-      </c>
-      <c r="V48" t="s">
-        <v>43</v>
-      </c>
-      <c r="W48" t="s">
-        <v>43</v>
-      </c>
-      <c r="X48" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" t="s">
-        <v>281</v>
-      </c>
-      <c r="F49">
-        <v>1856</v>
-      </c>
-      <c r="G49" t="s">
-        <v>282</v>
-      </c>
-      <c r="H49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49">
-        <v>2779</v>
-      </c>
-      <c r="J49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" t="s">
-        <v>43</v>
-      </c>
-      <c r="L49" t="s">
-        <v>283</v>
-      </c>
-      <c r="M49" t="s">
-        <v>43</v>
-      </c>
-      <c r="N49" t="s">
-        <v>43</v>
-      </c>
-      <c r="O49" t="s">
-        <v>43</v>
-      </c>
-      <c r="P49" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>43</v>
-      </c>
-      <c r="R49" t="s">
-        <v>284</v>
-      </c>
-      <c r="S49" t="s">
-        <v>285</v>
-      </c>
-      <c r="T49" t="s">
-        <v>43</v>
-      </c>
-      <c r="U49" t="s">
-        <v>43</v>
-      </c>
-      <c r="V49" t="s">
-        <v>43</v>
-      </c>
-      <c r="W49" t="s">
-        <v>43</v>
-      </c>
-      <c r="X49" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>287</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s">
-        <v>289</v>
-      </c>
-      <c r="F50">
-        <v>1925</v>
-      </c>
-      <c r="G50" t="s">
-        <v>290</v>
-      </c>
-      <c r="H50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50">
-        <v>2780</v>
-      </c>
-      <c r="J50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" t="s">
-        <v>43</v>
-      </c>
-      <c r="L50" t="s">
-        <v>291</v>
-      </c>
-      <c r="M50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N50" t="s">
-        <v>43</v>
-      </c>
-      <c r="O50" t="s">
-        <v>43</v>
-      </c>
-      <c r="P50" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>43</v>
-      </c>
-      <c r="R50" t="s">
-        <v>292</v>
-      </c>
-      <c r="S50" t="s">
-        <v>293</v>
-      </c>
-      <c r="T50" t="s">
-        <v>43</v>
-      </c>
-      <c r="U50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V50" t="s">
-        <v>43</v>
-      </c>
-      <c r="W50" t="s">
-        <v>43</v>
-      </c>
-      <c r="X50" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>287</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" t="s">
-        <v>295</v>
-      </c>
-      <c r="F51">
-        <v>1833</v>
-      </c>
-      <c r="G51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H51" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51">
-        <v>3154</v>
-      </c>
-      <c r="J51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" t="s">
-        <v>43</v>
-      </c>
-      <c r="L51" t="s">
-        <v>297</v>
-      </c>
-      <c r="M51" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" t="s">
-        <v>43</v>
-      </c>
-      <c r="O51" t="s">
-        <v>43</v>
-      </c>
-      <c r="P51" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>43</v>
-      </c>
-      <c r="R51" t="s">
-        <v>298</v>
-      </c>
-      <c r="S51" t="s">
-        <v>299</v>
-      </c>
-      <c r="T51" t="s">
-        <v>43</v>
-      </c>
-      <c r="U51" t="s">
-        <v>43</v>
-      </c>
-      <c r="V51" t="s">
-        <v>43</v>
-      </c>
-      <c r="W51" t="s">
-        <v>43</v>
-      </c>
-      <c r="X51" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>287</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52">
-        <v>1905</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52">
-        <v>3242</v>
-      </c>
-      <c r="J52" t="s">
-        <v>43</v>
-      </c>
-      <c r="K52" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" t="s">
-        <v>182</v>
-      </c>
-      <c r="M52" t="s">
-        <v>43</v>
-      </c>
-      <c r="N52" t="s">
-        <v>43</v>
-      </c>
-      <c r="O52" t="s">
-        <v>43</v>
-      </c>
-      <c r="P52" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>43</v>
-      </c>
-      <c r="R52" t="s">
-        <v>183</v>
-      </c>
-      <c r="S52" t="s">
-        <v>72</v>
-      </c>
-      <c r="T52" t="s">
-        <v>43</v>
-      </c>
-      <c r="U52" t="s">
-        <v>43</v>
-      </c>
-      <c r="V52" t="s">
-        <v>43</v>
-      </c>
-      <c r="W52" t="s">
-        <v>43</v>
-      </c>
-      <c r="X52" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53">
-        <v>1936</v>
-      </c>
-      <c r="G53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53">
-        <v>2781</v>
-      </c>
-      <c r="J53" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" t="s">
-        <v>43</v>
-      </c>
-      <c r="L53" t="s">
-        <v>214</v>
-      </c>
-      <c r="M53" t="s">
-        <v>43</v>
-      </c>
-      <c r="N53" t="s">
-        <v>43</v>
-      </c>
-      <c r="O53" t="s">
-        <v>43</v>
-      </c>
-      <c r="P53" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>43</v>
-      </c>
-      <c r="R53" t="s">
-        <v>215</v>
-      </c>
-      <c r="S53" t="s">
-        <v>216</v>
-      </c>
-      <c r="T53" t="s">
-        <v>43</v>
-      </c>
-      <c r="U53" t="s">
-        <v>43</v>
-      </c>
-      <c r="V53" t="s">
-        <v>43</v>
-      </c>
-      <c r="W53" t="s">
-        <v>43</v>
-      </c>
-      <c r="X53" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54">
-        <v>1936</v>
-      </c>
-      <c r="G54" t="s">
-        <v>213</v>
-      </c>
-      <c r="H54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54">
-        <v>3164</v>
-      </c>
-      <c r="J54" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" t="s">
-        <v>214</v>
-      </c>
-      <c r="M54" t="s">
-        <v>43</v>
-      </c>
-      <c r="N54" t="s">
-        <v>43</v>
-      </c>
-      <c r="O54" t="s">
-        <v>43</v>
-      </c>
-      <c r="P54" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>43</v>
-      </c>
-      <c r="R54" t="s">
-        <v>275</v>
-      </c>
-      <c r="S54" t="s">
-        <v>216</v>
-      </c>
-      <c r="T54" t="s">
-        <v>43</v>
-      </c>
-      <c r="U54" t="s">
-        <v>43</v>
-      </c>
-      <c r="V54" t="s">
-        <v>43</v>
-      </c>
-      <c r="W54" t="s">
-        <v>43</v>
-      </c>
-      <c r="X54" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55">
-        <v>1936</v>
-      </c>
-      <c r="G55" t="s">
-        <v>213</v>
-      </c>
-      <c r="H55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55">
-        <v>3289</v>
-      </c>
-      <c r="J55" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55" t="s">
-        <v>43</v>
-      </c>
-      <c r="L55" t="s">
-        <v>214</v>
-      </c>
-      <c r="M55" t="s">
-        <v>43</v>
-      </c>
-      <c r="N55" t="s">
-        <v>43</v>
-      </c>
-      <c r="O55" t="s">
-        <v>43</v>
-      </c>
-      <c r="P55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>43</v>
-      </c>
-      <c r="R55" t="s">
-        <v>278</v>
-      </c>
-      <c r="S55" t="s">
-        <v>216</v>
-      </c>
-      <c r="T55" t="s">
-        <v>43</v>
-      </c>
-      <c r="U55" t="s">
-        <v>43</v>
-      </c>
-      <c r="V55" t="s">
-        <v>43</v>
-      </c>
-      <c r="W55" t="s">
-        <v>43</v>
-      </c>
-      <c r="X55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56">
-        <v>1930</v>
-      </c>
-      <c r="G56" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56">
-        <v>3034</v>
-      </c>
-      <c r="J56" t="s">
-        <v>43</v>
-      </c>
-      <c r="K56" t="s">
-        <v>43</v>
-      </c>
-      <c r="L56" t="s">
-        <v>325</v>
-      </c>
-      <c r="M56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N56" t="s">
-        <v>43</v>
-      </c>
-      <c r="O56" t="s">
-        <v>43</v>
-      </c>
-      <c r="P56" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>43</v>
-      </c>
-      <c r="R56" t="s">
-        <v>326</v>
-      </c>
-      <c r="S56" t="s">
-        <v>80</v>
-      </c>
-      <c r="T56" t="s">
-        <v>43</v>
-      </c>
-      <c r="U56" t="s">
-        <v>43</v>
-      </c>
-      <c r="V56" t="s">
-        <v>43</v>
-      </c>
-      <c r="W56" t="s">
-        <v>43</v>
-      </c>
-      <c r="X56" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>328</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN56">
-    <sortCondition ref="AN2:AN56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO64">
+    <sortCondition ref="AN2:AN64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/Lewis_removed.xlsx
+++ b/input/Lewis_removed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B085EDDF-0072-4FF9-91B2-D1D5B60778FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F79631-9692-4C57-99BB-FDB5689CE374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
